--- a/Multi_Freelancer/freelancer_it_jobs.xlsx
+++ b/Multi_Freelancer/freelancer_it_jobs.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,755 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Job Title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Employer Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Budget</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Job Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Height Adjustment in Photoshop Image</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>45 proposals</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$2-8 USD / hour</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>I need a skilled Photoshop professional to alter the height of one person in a photo. The adjustment should look natural, not exaggerated or overly obvious. 
+Ideal skills for this job:
+- Proficiency in Adobe Photoshop
+- Expertise in photo manipulation and retouching
+- Strong attention to detail
+- Ability to create subtle, realistic changes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Identify singer or one of his songs</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4 proposals</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$10-11 USD</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Find me singer's name or one of his music videos.
+Singer is male; and is having yellow hair, which is bit lengthy.
+Music video 1:
+In one scene, he enters basement in his home with other people. And I think he plays guitar there with other people using other instruments.
+Music video 2:
+Video is shot in night and outside. In one scene there're pillars. And the singer passes his hand on his girlfriend's face.
+I've seen them when I was kid. They're released before 2008.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Creat a photo montage</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>36 proposals</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$10-30 CAD</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Create a visual for a Facebook post. The visual should be a realistic montage, as if it were from a photo shoot.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Realistic Couple Portrait</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>11 proposals</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>I'm looking for a professional digital artist who can create a realistic art piece of a couple using two different photos of them. 
+Key Requirements:
+- The final piece should depict the couple in a beautiful open environment.
+- The artist must have experience with realistic digital art and be able to seamlessly blend the two photos to create a cohesive image.
+Ideal Skills:
+- Proficient in digital art software.
+- Strong understanding of realistic art styles.
+- Experience with creating outdoor setting backgrounds.
+- Ability to work with and combine multiple images.
+- Able to use his/her imagination to create a beautiful photo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Instagram Posts Text Editor</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>25 proposals</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>£10-15 GBP / hour</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>I'm seeking a skilled editor to fine-tune the text of my Instagram marketing materials. The ideal candidate should have a strong understanding of Instagram's unique style and audience, and be able to enhance the effectiveness of my posts through precise text adjustments. 
+Key Requirements:
+- Proven experience editing social media content, particularly for Instagram
+- Excellent command of English language and grammar
+- Strong understanding of Instagram’s style and audience
+- Ability to enhance content's effectiveness through text adjustments</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Python Programmer Needed for Debugging Sets</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7 proposals</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>I need a Python programmer who can debug and fix issues related to sets in a data processing program.
+Key Requirements:
+- Modify a program without using 'set', 'sort', '&amp;', to get the same output. 
+The ideal candidate will have a strong understanding of Python and set implementation, along with experience in data processing.
+program  to be modified is attached
+run the program and note down the output for first 1000 natural numbers
+modified program will not use any data structure like 'set' or dictionary and no sort is used
+and should give the same output as original program(attached)
+for every number our program gives 10 unordered numbers as output
+the modified program should give the same unordered output 
+refer attachments</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Image Background Removal &amp; Resize</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>66 proposals</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$10-30 USD</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>I need two images edited for print. The requirements are as follows:
+- Change the background of both images from white to clear (transparent).
+- Resize each image to reduce the size by 20%.
+- Final output format should be PNG, without any adjustments to the colors or brightness of the original images. 
+Ideal skills for this project include image editing and graphic design, with experience in preparing images for print. Please keep the original colors and brightness of the photos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Meta Ads Expert for Interactive Sessions</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5 proposals</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$25-50 USD / hour</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>I'm looking for a Meta Ads expert for one or two online sessions. I'll share my screen, and you guide me and answer my questions. I have a Meta Business account and some experience, but I need expert guidance.
+Session Goals:
+- Learn how to set up ad campaigns focused on brand awareness on Instagram.
+Ideal Skills and Experience:
+- Strong expertise in Meta Ads
+- Proven experience with Instagram ad campaigns
+- Excellent communication skills
+- Patience and ability to explain technical concepts in a clear and understandable way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Social Media Ads Content &amp; Design</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>36 proposals</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$15-25 USD / hour</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>I'm looking for an experienced content and graphic designer who can create compelling static ads for social media platforms including Facebook, Instagram, and Google. The primary objective of these ads is lead generation. 
+Key Requirements:
+- Strong background in creating content and graphics for social media ads.
+- Proven track record of lead generation through ad campaigns.
+- Proficiency in understanding and leveraging the unique aspects of each platform.
+- Ability to create visually appealing and engaging content that aligns with brand messaging.
+Ideal Skills:
+- Graphic Design
+- Content Creation
+- Social Media Marketing
+- Lead Generation Strategies</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Monthly Video Editing for Reels, Shorts, Vlogs</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6 proposals</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>₹100-400 INR / hour</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I'm seeking a skilled video editor for my reels, shorts, and vlogs on a monthly basis. The ideal candidate should be adept at creating fast-paced and dynamic edits that can engage viewers effectively.
+Key requirements:
+- Proficiency in video editing software
+- Experience with social media video formats
+- Ability to create fast-paced and dynamic edits
+- Open to creative input and suggestions</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SEO Expert for Local Promotion of E-commerce Stores in Europe</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>47 proposals</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$10-30 AUD</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I'm seeking an SEO professional to help elevate the visibility and sales of my e-commerce store across several European countries including Germany, France, Netherlands, Poland, Sweden, and Norway. 
+Key Responsibilities:
+- Develop and execute an effective SEO strategy targeting major cities.
+- Create content optimized for German and French languages.
+- Focus on boosting online sales and improving search engine rankings.
+Ideal Skills:
+- Proven SEO expertise with a focus on European markets.
+- Fluent in German and French, with excellent content creation skills.
+- Strong track record in e-commerce SEO.
+Please submit proposals with examples of previous work and pricing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KickStarter Campaign Content Creation</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>13 proposals</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$30-250 CAD</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>My upcoming KickStarter platform campaign has to be a success in order for me start my business! I really need to know the people that are truly willing to support me. 
+I have a 3 minute video for project uploaded on YouTube, I have some information about the project that could help for pitch/content writing, I can share a sample of Reward structure of one competitor.
+Key requirements include:
+1. Crafting attractive pitch/content
+2. Complete account &amp; campaign setup
+3. Campaign images (up to 4)
+4.  High-resolution Infographics &amp; Gifs (up to 4)
+5. Rewards structure</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Asterisk Server Credit Check Implementation</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>36 proposals</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>£20-250 GBP</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>I'm looking to implement a system on my Asterisk server that checks a caller's credit based on the number dialed.
+Key Requirements:
+When user tries to make a call, send the dialled number to the API, the API will return how many minutes of credit they have for that number. If they have &gt; 1 minute of credit available then allow the call to go ahead, otherwise send caller to a pre-recorded message advising them they have no credit (we will supply the message). During the call if credit falls below 2 minutes play "beep" warning to the caller every 15 seconds, when credit runs out disconnect called party and send caller to pre-recorded message advising they ran out of credit (we will supply the message). The API is a standard RESTful API that works with JSON that we have written, we can adjust the endpoints as required to make this job as easy as possible.. Experience with Asterisk, telephony systems, and interfacing with APIs is crucial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Shopify Store Design for Physical Products-TECH</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>108 proposals</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$30-250 USD</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>I need a professional web designer to help me create an engaging and user-friendly Shopify store focused on selling physical products.
+Key Requirements:
+- Extensive experience in Shopify design
+- Strong web design skills
+- Portfolio showcasing previous Shopify store designs
+- Ability to create a store with a seamless shopping experience
+Please include your relevant experience and a portfolio of previous work in your bid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Selling General Electric Gas Turbine</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1 proposal</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$750-1500 USD</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>I am in need of a gas turbine engineer to assist me in selling my General Electric gas turbine. The turbine is in good, used condition and I'm looking to generate immediate cash flow from the sale. 
+Key Requirements:
+- Expertise in gas turbines, specifically General Electric models
+- Experience in selling industrial equipment
+- Ability to assess and market the turbine's value
+- Strong negotiation skills
+- Knowledge of potential buyers in the industry
+The ideal freelancer for this job would have a solid background in gas turbine engineering and sales. They should be able to handle the sale professionally, ensuring I receive the best possible price for the turbine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Multi_Freelancer/freelancer_it_jobs.xlsx
+++ b/Multi_Freelancer/freelancer_it_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Budget</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Budget</t>
+          <t>Proposal</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Client_Location</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Job Description</t>
         </is>
@@ -463,25 +468,588 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Formitable Forms,  Help with advanced features,  views and subforms</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>$8-15 USD / hour</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57 proposals</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>St Augustine,  United States</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Must have formitable experience. 
+I have a fully set up main form and need an expert to assist with the creation of some advanced sub-forms. 
+The sub-form needs to incorporate:
+- Conditional Logic: The ability to adapt based on user input.
+- Dynamic Fields: Fields that can change or update in real-time.
+Ideal candidates for this project should have extensive experience with Formitable, particularly in sub-form creation and customization. Please reach out if you have the necessary skills and experience.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Affiliates Needed for Gambling Site</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>₹600-1500 INR</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1 proposal</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Mysuru,  India</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I am an advertiser in search of affiliates who can provide leads to my gambling site. The focus is primarily on first-time depositors, specifically from India. 
+Key Requirements:
+- Affiliates should be able to generate leads that convert into first-time depositors.
+- Promotion should be done through social media marketing.
+Ideal Skills:
+- Proficiency in social media marketing.
+- Strong network and reach within India.
+- Experience in affiliate marketing for gambling or similar sites is a plus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Matching / Social Website</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$30-250 USD</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52 proposals</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>小松市 - Komatsu Shi,  Japan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>I need a matching website for people to find their love or relationships on this platform, similar to a social network, but it doesn’t need to have as many features as a social network. However, it does need various customized features to promote people meeting each other. Users will have profiles and should be able to upload photos, images, videos, audio, presentations, and other features with filters. People should be able to communicate via text messages, audio messages, and possibly even audio calls.
+I would like to have some subscription plans, with free users having several limitations on features. For this, I would like to use the WordPress platform; you can use a ready-made theme, but I will definitely need adjustments and various customizations to fit my idea. 
+So if you are serious, honor your bid (price), and work responsibly, we will get along well. It will be an honor to work with you, as I have many other projects.
+PLEASE, I WILL NOT ACCEPT BIDS AND PRICES THAT ARE INCORRECT JUST FOR DISCUSSION. PEOPLE WHO MAKE BIDS WITH INCORRECT PRICES WILL NOT BE CONSIDERED AND WILL BE DELETED IMMEDIATELY. SO PLEASE, LET’S ONLY DISCUSS AFTER SUBMITTING CORRECT BIDS AND PRICES. UNDERSTAND, PLEASE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Instant App Development for Android &amp; iOS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>₹600-1500 INR</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1 proposal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bengaluru,  India</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>I'm looking for a seasoned app developer to create an instant application for both Android and iOS. The goal of this app is to provide users with access to basic utilities, such as a scanner, without the need to download the app.
+Key Requirements:
+- Experience in developing instant apps for Android and iOS
+- Knowledge in integrating basic utility tools within an app
+- A portfolio demonstrating previous similar projects
+- Understanding of e-commerce and social networking app features, should they be needed in future updates.
+The primary function of this app will be to allow users to scan documents with ease. The ideal candidate will have a strong background in app development and be able to deliver a user-friendly, efficient instant app.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Farsi to English Translation for Visa</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>£10-20 GBP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11 proposals</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Kingsbury,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>I need professional translation of my ID card (front and back) from Farsi to English. The translation must be done by a NAATI accredited professional, as it is required for my USA visa. The translation agency will need to provide a letter to the US Embassy.
+- Translation: ID card from Farsi to English
+- Accreditation: NAATI (National Accreditation Authority for Translators and Interpreters) is a must
+- Format: Translated document should be in PDF
+- Layout: Formal letter style, not an exact replica of the original
+Ideal candidates should have experience in translating documents for visa purposes and can provide a letter to the US Embassy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Show before and after image of different places</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€30-250 EUR</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26 proposals</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lustenau,  Austria</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>We need some visualizations of 5 or 6 places in a small village. These images should show the people living there what the politics will do in near future. There will be a presentation where the original photos (which are to work on) and the "new" situations will be shown. So we need photoshop and maybe AI skills to do it like in the example. We have plans where the new situation is shown, and we have photos of the places like they are now.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Microsoft Business Central Implementation Expert</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>£18-36 GBP / hour</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5 proposals</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Newham,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I am seeking a seasoned professional to implement Microsoft Business Central for my business. The key functionalities required include:
+- Financial Management: Streamlining our financial operations and reporting.
+- Supply Chain Management: Optimizing our supply chain processes.
+- Customer Relationship Management (CRM): Enhancing our customer interactions and data management.
+A crucial aspect of this project will be the integration of our existing ERP system with Microsoft Business Central. Therefore, the ideal candidate will have extensive experience with:
+- Implementing Microsoft Business Central
+- Integrating systems, particularly ERP systems
+- Customizing and implementing Financial Management, Supply Chain Management, and CRM functionalities
+- Providing post-implementation support and maintenance.
+I am looking for someone who can deliver a seamless implementation and integration process, with the expertise to customize the system to meet our specific business needs. Please provide examples of similar projects you have completed in your proposal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>₹12500-37500 INR</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6 proposals</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>New Delhi,  India</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I'm seeking a talented software engineer to assist me in developing a software application. The specifics of the software will be discussed further, but your expertise can help shape the project. 
+Ideal Skills and Experience:
+- Proficiency in software development
+- Experience in web, mobile, and desktop applications
+- Strong problem-solving skills
+- Excellent communication and collaboration abilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>iOS Messaging App Development</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$250-750 AUD</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>53 proposals</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Melbourne,  Australia</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I'm seeking an experienced iOS developer to create a secure, user-friendly messaging app. The app should integrate features from popular platforms like WhatsApp, Facebook Messenger, and Blackberry Messenger. 
+Key Features:
+- User ID creation
+- Individual and group messaging
+- Photo sharing
+- thats it. A plain messaging app but with a good UI. users would add each other by their user ids set up by them
+User Authentication:
+- Phone number based authentication
+Security:
+- In-transit encryption or end to end can be discussed later
+Ideal Skills and Experience:
+- Proven track record in iOS app development
+- Experience in creating messaging apps
+- Understanding of user-friendly interface design
+- Knowledge of implementing secure messaging systems
+And I would like to point this out. I’m not too sure about the price point because it’s the first time so I’m just pricing it at a general cost. Please feel free to put up your prices for the project and message me. Thanks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PHP - Changes in Existing Project -- 2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€2-6 EUR / hour</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>63 proposals</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Almada,  Portugal</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>I already have a project in PHP with SQL server.
+There are some issues to fix. Like time loading and increase quality in screans, for better user experience.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Professional PDF Resume Redesign</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$30-250 USD</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43 proposals</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Shenzhen,  China</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I am looking for a skilled graphic designer with expertise in creating interactive PDFs to rebuild my current interactive resume. The goal is to make it more engaging, dynamic, and sleek, reflecting the latest updates in my resume content.
+NB: Please bid only if you possess the required skills: Adobe InDesign; Graphic Design; UX/User Experience; Page Speed Optimization; Interactive Design; Troubleshooting.
+Project Objectives:
+1. Revamp Design and Layout:
+- Redesign the overall look and feel to ensure a modern and professional appearance.
+- Enhance the layout for improved readability and visual appeal.
+2. Update Content:
+- Incorporate the latest updates from my current resume.
+- Ensure all content is accurately represented and effectively highlighted.
+3. Improve Visuals:
+- Enhance graphics and visual elements for a more polished and eye-catching presentation.
+- Ensure consistency in design elements and color schemes.
+3. Fix Interactive Elements:
+- The PDF currently freezes on some platforms and Adobe viewer versions, including issues with flickering and freezing when hovering over pages. 
+- Currently it consists of 6 pages, which need to be consolidated into a single page format, allowing users to hover over different sections seamlessly.
+- Increase navigation speed across different sections.
+- Address any issues with clickable links, buttons, and other interactive features.
+- Ensure all interactive elements function correctly and enhance user experience.
+Deliverables:
+- Updated interactive PDF resume with improved design, content, and functionality.
+- A detailed task list and all source information including my updated resume will be provided separately.
+- Please include examples of previous interactive PDFs you have designed in your proposal.
+Budget: Open to bids; looking for high-quality work and competitive pricing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Height Adjustment in Photoshop Image</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$2-8 USD / hour</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>45 proposals</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$2-8 USD / hour</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Atlanta,  United States</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>I need a skilled Photoshop professional to alter the height of one person in a photo. The adjustment should look natural, not exaggerated or overly obvious. 
 Ideal skills for this job:
@@ -492,82 +1060,97 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>No Title Available</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Not Disclosed</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>No Description Available</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>No Title Available</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Not Disclosed</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>No Description Available</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Identify singer or one of his songs</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$10-11 USD</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>4 proposals</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$10-11 USD</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Peshawar,  Pakistan</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Find me singer's name or one of his music videos.
 Singer is male; and is having yellow hair, which is bit lengthy.
@@ -579,55 +1162,65 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Creat a photo montage</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$10-30 CAD</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>36 proposals</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$10-30 CAD</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Saint-Jérome,  Canada</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Create a visual for a Facebook post. The visual should be a realistic montage, as if it were from a photo shoot.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Realistic Couple Portrait</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>11 proposals</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>₹1500-12500 INR</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Melbourne,  Australia</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>I'm looking for a professional digital artist who can create a realistic art piece of a couple using two different photos of them. 
 Key Requirements:
@@ -642,28 +1235,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Instagram Posts Text Editor</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>£10-15 GBP / hour</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>25 proposals</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>£10-15 GBP / hour</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Slough,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>I'm seeking a skilled editor to fine-tune the text of my Instagram marketing materials. The ideal candidate should have a strong understanding of Instagram's unique style and audience, and be able to enhance the effectiveness of my posts through precise text adjustments. 
 Key Requirements:
@@ -674,28 +1272,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Python Programmer Needed for Debugging Sets</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>7 proposals</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>₹1500-12500 INR</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Kanpur,  India</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>I need a Python programmer who can debug and fix issues related to sets in a data processing program.
 Key Requirements:
@@ -711,28 +1314,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Image Background Removal &amp; Resize</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$10-30 USD</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>66 proposals</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$10-30 USD</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Huntington Station,  United States</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>I need two images edited for print. The requirements are as follows:
 - Change the background of both images from white to clear (transparent).
@@ -742,82 +1350,97 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>No Title Available</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Not Disclosed</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>No Description Available</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>No Title Available</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Not Disclosed</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>No Description Available</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Meta Ads Expert for Interactive Sessions</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$25-50 USD / hour</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>5 proposals</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$25-50 USD / hour</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Doha,  Qatar</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>I'm looking for a Meta Ads expert for one or two online sessions. I'll share my screen, and you guide me and answer my questions. I have a Meta Business account and some experience, but I need expert guidance.
 Session Goals:
@@ -830,92 +1453,65 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Social Media Ads Content &amp; Design</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>36 proposals</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$15-25 USD / hour</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>I'm looking for an experienced content and graphic designer who can create compelling static ads for social media platforms including Facebook, Instagram, and Google. The primary objective of these ads is lead generation. 
-Key Requirements:
-- Strong background in creating content and graphics for social media ads.
-- Proven track record of lead generation through ad campaigns.
-- Proficiency in understanding and leveraging the unique aspects of each platform.
-- Ability to create visually appealing and engaging content that aligns with brand messaging.
-Ideal Skills:
-- Graphic Design
-- Content Creation
-- Social Media Marketing
-- Lead Generation Strategies</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>No Title Available</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Not Disclosed</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>No Description Available</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Monthly Video Editing for Reels, Shorts, Vlogs</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>₹100-400 INR / hour</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>6 proposals</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>₹100-400 INR / hour</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Bengaluru,  India</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>I'm seeking a skilled video editor for my reels, shorts, and vlogs on a monthly basis. The ideal candidate should be adept at creating fast-paced and dynamic edits that can engage viewers effectively.
 Key requirements:
@@ -926,55 +1522,65 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>No Title Available</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Not Disclosed</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>No Description Available</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>SEO Expert for Local Promotion of E-commerce Stores in Europe</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$10-30 AUD</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>47 proposals</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$10-30 AUD</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>London,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>I'm seeking an SEO professional to help elevate the visibility and sales of my e-commerce store across several European countries including Germany, France, Netherlands, Poland, Sweden, and Norway. 
 Key Responsibilities:
@@ -989,28 +1595,33 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>KickStarter Campaign Content Creation</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$30-250 CAD</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>13 proposals</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$30-250 CAD</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>TORONTO,  United States</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>My upcoming KickStarter platform campaign has to be a success in order for me start my business! I really need to know the people that are truly willing to support me. 
 I have a 3 minute video for project uploaded on YouTube, I have some information about the project that could help for pitch/content writing, I can share a sample of Reward structure of one competitor.
@@ -1023,55 +1634,65 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>No Title Available</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Not Disclosed</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>No Description Available</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Asterisk Server Credit Check Implementation</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>£20-250 GBP</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>36 proposals</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>£20-250 GBP</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>High Wycombe,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>I'm looking to implement a system on my Asterisk server that checks a caller's credit based on the number dialed.
 Key Requirements:
@@ -1079,28 +1700,33 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Shopify Store Design for Physical Products-TECH</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$30-250 USD</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>108 proposals</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$30-250 USD</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Bucharest,  Romania</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>I need a professional web designer to help me create an engaging and user-friendly Shopify store focused on selling physical products.
 Key Requirements:
@@ -1112,28 +1738,33 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Selling General Electric Gas Turbine</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$750-1500 USD</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>1 proposal</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$750-1500 USD</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Dammam,  Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>I am in need of a gas turbine engineer to assist me in selling my General Electric gas turbine. The turbine is in good, used condition and I'm looking to generate immediate cash flow from the sale. 
 Key Requirements:
@@ -1146,30 +1777,113 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>No Title Available</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>Not Disclosed</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Metaverse Development for prototype creation (3D Modelling)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>₹600-1500 INR</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2 proposals</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Agra,  India</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>I'm looking for an experienced AR and VR developer to help me create a brand new application. The specifics of the app's purpose and targeted platform are still being finalized, so flexibility and creativity will be key. 
+Ideal candidates should have:
+- Demonstrated experience in AR &amp; VR application development
+- Strong problem-solving skills
+- Ability to work creatively and flexibly
+- Excellent communication skills for project updates and brainstorming sessions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Directory of Gardeners and Landscapers Website Development</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$250-750 USD</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>121 proposals</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>lyon,  Tunisia</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I'm seeking a web developer to create a gardening directory website. The primary goal of this platform is to list gardening professionals.
+i will choose the person who already created this kind of website, need to see a sample of his work
+Key Features:
+- User-friendly interface where users can search for professionals by location.
+- Comprehensive profiles for each professional, including contact details, services offered, customer reviews, and galleries of previous work.
+Ideal Skills and Experience:
+- Proven experience in web development, specifically in creating directory websites.
+- Strong understanding of user interface design and user experience.
+- Ability to incorporate review and rating systems.
+- Proficiency in managing multimedia content within profiles.</t>
         </is>
       </c>
     </row>

--- a/Multi_Freelancer/freelancer_it_jobs.xlsx
+++ b/Multi_Freelancer/freelancer_it_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Formitable Forms,  Help with advanced features,  views and subforms</t>
+          <t>Social Media Multilingual Translator Needed</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,34 +478,35 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$8-15 USD / hour</t>
+          <t>$250-750 USD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>57 proposals</t>
+          <t>6 proposals</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>St Augustine,  United States</t>
+          <t>Poltava,  Ukraine</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Must have formitable experience. 
-I have a fully set up main form and need an expert to assist with the creation of some advanced sub-forms. 
-The sub-form needs to incorporate:
-- Conditional Logic: The ability to adapt based on user input.
-- Dynamic Fields: Fields that can change or update in real-time.
-Ideal candidates for this project should have extensive experience with Formitable, particularly in sub-form creation and customization. Please reach out if you have the necessary skills and experience.</t>
+          <t>I'm looking for a quality translator who can translate my Instagram texts into various languages. The main goal of these translations is to promote my products or services. 
+Skills and experience required:
+- Proficient in Spanish, French, English, Arabic, Italian, Polish
+- Experience in marketing translations
+- Understanding of social media and its language
+- Able to deliver high-quality translations consistently
+- Long-term commitment is needed</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Affiliates Needed for Gambling Site</t>
+          <t>YouTube Gaming Video Editor</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -515,36 +516,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>₹600-1500 INR</t>
+          <t>$30-250 USD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1 proposal</t>
+          <t>31 proposals</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mysuru,  India</t>
+          <t>Maricopa,  United States</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>I am an advertiser in search of affiliates who can provide leads to my gambling site. The focus is primarily on first-time depositors, specifically from India. 
-Key Requirements:
-- Affiliates should be able to generate leads that convert into first-time depositors.
-- Promotion should be done through social media marketing.
+          <t>I'm in need of a skilled video editor with experience in gaming content. The video will be uploaded to my YouTube channel, so familiarity with YouTube's style and audience is a plus.
+Key Responsibilities:
+- Edit raw gameplay footage into engaging content
+- Create visually appealing montages with sound effects and music
+- Ensure the final product is optimized for YouTube
 Ideal Skills:
-- Proficiency in social media marketing.
-- Strong network and reach within India.
-- Experience in affiliate marketing for gambling or similar sites is a plus.</t>
+- Proficiency in video editing software
+- Experience with gaming content
+- Creative mindset with a good understanding of pacing, music, and visuals
+Please provide examples of previous gaming videos you have edited.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>No Title Available</t>
+          <t>YouTube Video Editing Expert Needed</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -554,29 +557,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Not Disclosed</t>
+          <t>₹1500-12500 INR</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No Location Available</t>
+          <t>4 proposals</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>No Location Available</t>
+          <t>Indore,  India</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>No Description Available</t>
+          <t>I'm seeking a talented video editor to enhance my YouTube content. Your primary responsibilities will include:
+- Adding effects and transitions to create engaging and professional-quality videos.
+Ideal skills and experience include:
+- Proficiency in video editing software (like Adobe Premiere Pro, Final Cut Pro, etc.)
+- Prior experience editing YouTube content.
+- Understanding of what makes a video entertaining and engaging for viewers.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Matching / Social Website</t>
+          <t>Wikipedia Page Creation for Ahmad Haffar -- 3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -586,32 +594,40 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$30-250 USD</t>
+          <t>$250-750 USD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>52 proposals</t>
+          <t>23 proposals</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>小松市 - Komatsu Shi,  Japan</t>
+          <t>Dubai,  United Arab Emirates</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>I need a matching website for people to find their love or relationships on this platform, similar to a social network, but it doesn’t need to have as many features as a social network. However, it does need various customized features to promote people meeting each other. Users will have profiles and should be able to upload photos, images, videos, audio, presentations, and other features with filters. People should be able to communicate via text messages, audio messages, and possibly even audio calls.
-I would like to have some subscription plans, with free users having several limitations on features. For this, I would like to use the WordPress platform; you can use a ready-made theme, but I will definitely need adjustments and various customizations to fit my idea. 
-So if you are serious, honor your bid (price), and work responsibly, we will get along well. It will be an honor to work with you, as I have many other projects.
-PLEASE, I WILL NOT ACCEPT BIDS AND PRICES THAT ARE INCORRECT JUST FOR DISCUSSION. PEOPLE WHO MAKE BIDS WITH INCORRECT PRICES WILL NOT BE CONSIDERED AND WILL BE DELETED IMMEDIATELY. SO PLEASE, LET’S ONLY DISCUSS AFTER SUBMITTING CORRECT BIDS AND PRICES. UNDERSTAND, PLEASE.</t>
+          <t>I'm seeking a skilled professional to create a comprehensive Wikipedia page for Ahmad Haffar. The page should thoroughly cover Haffar's professional career, personal life, and contributions to the community. 
+Key Requirements:
+- Full research: The freelancer will need to find all sources, both primary and secondary, to support the content. This includes news articles, books, interviews, and personal documents.
+- Writing: The freelancer should be able to write in a neutral, encyclopedic tone that adheres to Wikipedia's guidelines.
+- Publishing: The final task will be to publish the page on Wikipedia.
+Ideal Skills and Experience:
+- Proven experience in Wikipedia page creation and understanding of its guidelines.
+- Exceptional research and writing skills.
+- Ability to write in a neutral, encyclopedic tone.
+- Prior experience with both primary and secondary source research.
+- Familiarity with the Wikipedia publishing process. 
+I am looking for a freelancer who is not only capable of meeting these requirements but who can also present Haffar's life and achievements in a captivating manner.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Instant App Development for Android &amp; iOS</t>
+          <t>No Title Available</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -621,28 +637,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>₹600-1500 INR</t>
+          <t>Not Disclosed</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 proposal</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bengaluru,  India</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>I'm looking for a seasoned app developer to create an instant application for both Android and iOS. The goal of this app is to provide users with access to basic utilities, such as a scanner, without the need to download the app.
-Key Requirements:
-- Experience in developing instant apps for Android and iOS
-- Knowledge in integrating basic utility tools within an app
-- A portfolio demonstrating previous similar projects
-- Understanding of e-commerce and social networking app features, should they be needed in future updates.
-The primary function of this app will be to allow users to scan documents with ease. The ideal candidate will have a strong background in app development and be able to deliver a user-friendly, efficient instant app.</t>
+          <t>No Description Available</t>
         </is>
       </c>
     </row>
@@ -659,7 +669,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Not Disclosed</t>
+          <t>Welcome back</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -681,7 +691,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Farsi to English Translation for Visa</t>
+          <t>Business Website Designer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -691,34 +701,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>£10-20 GBP</t>
+          <t>₹100-400 INR / hour</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11 proposals</t>
+          <t>17 proposals</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Kingsbury,  United Kingdom</t>
+          <t>Hisar,  India</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>I need professional translation of my ID card (front and back) from Farsi to English. The translation must be done by a NAATI accredited professional, as it is required for my USA visa. The translation agency will need to provide a letter to the US Embassy.
-- Translation: ID card from Farsi to English
-- Accreditation: NAATI (National Accreditation Authority for Translators and Interpreters) is a must
-- Format: Translated document should be in PDF
-- Layout: Formal letter style, not an exact replica of the original
-Ideal candidates should have experience in translating documents for visa purposes and can provide a letter to the US Embassy.</t>
+          <t>I'm looking for a talented web designer to create a professional and engaging business site for me. The primary goal of this website will be to showcase my products and services.
+Key Features:
+- A contact form to enable potential customers to reach out
+Ideal Skills:
+- Proven experience in designing business websites
+- E-commerce knowledge would be a plus
+- Excellent understanding of user-friendly design principles
+- Proficient in creating responsive designs
+- Knowledge of SEO best practices
+Please include examples of your previous work with your bid.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Show before and after image of different places</t>
+          <t>No Title Available</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -728,29 +742,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>€30-250 EUR</t>
+          <t>Not Disclosed</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>26 proposals</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lustenau,  Austria</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>We need some visualizations of 5 or 6 places in a small village. These images should show the people living there what the politics will do in near future. There will be a presentation where the original photos (which are to work on) and the "new" situations will be shown. So we need photoshop and maybe AI skills to do it like in the example. We have plans where the new situation is shown, and we have photos of the places like they are now.</t>
+          <t>No Description Available</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>No Title Available</t>
+          <t>Algolia Search Integration Enhancement</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -760,29 +774,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Not Disclosed</t>
+          <t>€30-250 EUR</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>No Location Available</t>
+          <t>11 proposals</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>No Location Available</t>
+          <t>MILTON KEYNES,  United Kingdom</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>No Description Available</t>
+          <t>I'm looking for an expert to help refine and finish the Algolia Search integration with our platform. The platform is connected, but the search result accuracy and training models need improvements. 
+Key Responsibilities:
+- Improve the accuracy of search results
+- Train models using user data
+- Utilize user-generated content for model training
+Ideal Skills:
+- Proficiency in Algolia Search
+- Experience in search optimization
+- Skills in data analysis and model training
+Please note, the goal is to enhance the search experience on our platform.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Microsoft Business Central Implementation Expert</t>
+          <t>No Title Available</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -792,31 +815,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>£18-36 GBP / hour</t>
+          <t>Not Disclosed</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5 proposals</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Newham,  United Kingdom</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>I am seeking a seasoned professional to implement Microsoft Business Central for my business. The key functionalities required include:
-- Financial Management: Streamlining our financial operations and reporting.
-- Supply Chain Management: Optimizing our supply chain processes.
-- Customer Relationship Management (CRM): Enhancing our customer interactions and data management.
-A crucial aspect of this project will be the integration of our existing ERP system with Microsoft Business Central. Therefore, the ideal candidate will have extensive experience with:
-- Implementing Microsoft Business Central
-- Integrating systems, particularly ERP systems
-- Customizing and implementing Financial Management, Supply Chain Management, and CRM functionalities
-- Providing post-implementation support and maintenance.
-I am looking for someone who can deliver a seamless implementation and integration process, with the expertise to customize the system to meet our specific business needs. Please provide examples of similar projects you have completed in your proposal.</t>
+          <t>No Description Available</t>
         </is>
       </c>
     </row>
@@ -855,7 +869,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>DGII Facturacion Electronica odoo Republica Dominicana</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -865,34 +879,31 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>₹12500-37500 INR</t>
+          <t>€750-1500 EUR</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6 proposals</t>
+          <t>33 proposals</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>New Delhi,  India</t>
+          <t>Aviles,  Spain</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>I'm seeking a talented software engineer to assist me in developing a software application. The specifics of the software will be discussed further, but your expertise can help shape the project. 
-Ideal Skills and Experience:
-- Proficiency in software development
-- Experience in web, mobile, and desktop applications
-- Strong problem-solving skills
-- Excellent communication and collaboration abilities</t>
+          <t>Necesito hacer un módulo para Odoo 14 o superior para integrar con la Facturación Electrónica de República Dominicana.
+Esta es la documentación:
+[login to view URL]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>iOS Messaging App Development</t>
+          <t>SAAS Product Website UI Design</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -902,44 +913,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$250-750 AUD</t>
+          <t>$8-15 USD / hour</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>53 proposals</t>
+          <t>76 proposals</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Melbourne,  Australia</t>
+          <t>Sharjah,  United Arab Emirates</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>I'm seeking an experienced iOS developer to create a secure, user-friendly messaging app. The app should integrate features from popular platforms like WhatsApp, Facebook Messenger, and Blackberry Messenger. 
-Key Features:
-- User ID creation
-- Individual and group messaging
-- Photo sharing
-- thats it. A plain messaging app but with a good UI. users would add each other by their user ids set up by them
-User Authentication:
-- Phone number based authentication
-Security:
-- In-transit encryption or end to end can be discussed later
-Ideal Skills and Experience:
-- Proven track record in iOS app development
-- Experience in creating messaging apps
-- Understanding of user-friendly interface design
-- Knowledge of implementing secure messaging systems
-And I would like to point this out. I’m not too sure about the price point because it’s the first time so I’m just pricing it at a general cost. Please feel free to put up your prices for the project and message me. Thanks.</t>
+          <t>I'm looking for a talented UI designer to create a user interface for my e-commerce website. The design should be intuitive, attractive, and conducive to driving sales.
+Key Requirements:
+- Design for the Homepage and Product pages
+- Expertise in Website UI design
+- Prior experience in designing SAAS Product site UIs
+- Understanding of user-centric design principles
+- Proficiency in design tools like Sketch, Figma, or Adobe XD
+Your design should enhance user experience, promote easy navigation and ultimately lead to increased conversions. Please provide a portfolio of your previous work in SAAS UI design.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PHP - Changes in Existing Project -- 2</t>
+          <t>No Title Available</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -949,30 +952,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>€2-6 EUR / hour</t>
+          <t>Not Disclosed</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>63 proposals</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Almada,  Portugal</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>I already have a project in PHP with SQL server.
-There are some issues to fix. Like time loading and increase quality in screans, for better user experience.</t>
+          <t>No Description Available</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Professional PDF Resume Redesign</t>
+          <t>YouTube Video Editing Needed</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -982,51 +984,40 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$30-250 USD</t>
+          <t>₹600-1000 INR</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>43 proposals</t>
+          <t>4 proposals</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Shenzhen,  China</t>
+          <t>Delhi,  India</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>I am looking for a skilled graphic designer with expertise in creating interactive PDFs to rebuild my current interactive resume. The goal is to make it more engaging, dynamic, and sleek, reflecting the latest updates in my resume content.
-NB: Please bid only if you possess the required skills: Adobe InDesign; Graphic Design; UX/User Experience; Page Speed Optimization; Interactive Design; Troubleshooting.
-Project Objectives:
-1. Revamp Design and Layout:
-- Redesign the overall look and feel to ensure a modern and professional appearance.
-- Enhance the layout for improved readability and visual appeal.
-2. Update Content:
-- Incorporate the latest updates from my current resume.
-- Ensure all content is accurately represented and effectively highlighted.
-3. Improve Visuals:
-- Enhance graphics and visual elements for a more polished and eye-catching presentation.
-- Ensure consistency in design elements and color schemes.
-3. Fix Interactive Elements:
-- The PDF currently freezes on some platforms and Adobe viewer versions, including issues with flickering and freezing when hovering over pages. 
-- Currently it consists of 6 pages, which need to be consolidated into a single page format, allowing users to hover over different sections seamlessly.
-- Increase navigation speed across different sections.
-- Address any issues with clickable links, buttons, and other interactive features.
-- Ensure all interactive elements function correctly and enhance user experience.
-Deliverables:
-- Updated interactive PDF resume with improved design, content, and functionality.
-- A detailed task list and all source information including my updated resume will be provided separately.
-- Please include examples of previous interactive PDFs you have designed in your proposal.
-Budget: Open to bids; looking for high-quality work and competitive pricing.</t>
+          <t>I am looking for a skilled video editor to help edit my YouTube videos. The editing style should be simple and clean, without too many distractions or unnecessary cuts.
+Key Responsibilities:
+- Edit video footage into a coherent and engaging final product
+- Incorporate background music at appropriate parts of the video
+- Use transitions to smoothly segue between different segments of the video
+Ideal Skills:
+- Proficiency in video editing software
+- Previous experience editing YouTube content
+- Ability to adhere to a specific editing style
+- Strong understanding of pacing and timing in video editing
+- Creative approach to utilizing music and transitions 
+I am open to seeing examples of previous work and discussing how you can help enhance the quality of my channel.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Height Adjustment in Photoshop Image</t>
+          <t>Admin Support</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1036,34 +1027,34 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$2-8 USD / hour</t>
+          <t>£2-5 GBP / hour</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45 proposals</t>
+          <t>35 proposals</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Atlanta,  United States</t>
+          <t>Barnet,  United Kingdom</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>I need a skilled Photoshop professional to alter the height of one person in a photo. The adjustment should look natural, not exaggerated or overly obvious. 
-Ideal skills for this job:
-- Proficiency in Adobe Photoshop
-- Expertise in photo manipulation and retouching
-- Strong attention to detail
-- Ability to create subtle, realistic changes</t>
+          <t>I'm in need of an efficient, dedicated professional to assist with various administrative tasks, primarily focusing on customer support via email. 
+Ideal Candidates Should Have:
+- Strong email communication skills, with an ability to handle, respond and manage customer queries professionally and promptly.
+- Experience in data entry, email management, and scheduling appointments.
+- Prior experience in customer support, specifically email support.
+- A proactive approach towards office management tasks.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>No Title Available</t>
+          <t>Food Vlog &amp; Hotel Navigator App</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1073,29 +1064,34 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Not Disclosed</t>
+          <t>₹1500-12500 INR</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No Location Available</t>
+          <t>8 proposals</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>No Location Available</t>
+          <t>Chennai,  India</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>No Description Available</t>
+          <t>I'm looking for a skilled UI/UX designer to help create a mobile application. The app should allow users to view food vlog videos, search for hotels and navigate through a map.
+Key features include:
+- Comprehensive hotel details including timing, address, phone, rating, signature dishes, and prices.
+- Advanced navigation features such as turn-by-turn directions and route optimization.
+- User-friendly interface that seamlessly integrates video viewing, hotel searching, and map navigation.
+Freelancers with experience in designing for mobile applications, particularly in the travel and food sectors, will be preferred. A keen understanding of UI/UX principles and a knack for creating engaging and intuitive designs is essential. Please include examples of relevant past work in your proposal.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>No Title Available</t>
+          <t>Custom-Built E-commerce Website Development</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1105,29 +1101,50 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Not Disclosed</t>
+          <t>$1500-3000 CAD</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>No Location Available</t>
+          <t>114 proposals</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>No Location Available</t>
+          <t>Ottawa,  Canada</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>No Description Available</t>
+          <t>I'm seeking a skilled web developer to create a comprehensive, custom-built E-commerce site for me.
+Essential Features:
+- Shopping Cart: Users should be able to shop and add items to their cart seamlessly.
+- SEO-Friendly: The site needs to be optimized for search engines to enhance visibility.
+- User Accounts: Implementation of account creation and management is crucial.
+- Inventory Management: The website should have a robust system for managing inventory.
+- Security: The site must have SSL Certification, a secure payment gateway, and data encryption to ensure safety and security.
+- CMS: I need an easy-to-use CMS that allows me to add/update products effortlessly.
+Control:
+I want full control over all updates and changes to the website, not just the content.
+Ideal Skills:
+- Expertise in custom website development.
+- Proficient in building E-commerce platforms.
+- Comprehensive knowledge of SEO strategies.
+- Experience with implementing robust security features.
+- Skilled in developing user-friendly CMS.
+I'm looking for a professional who can deliver a high-quality, secure, and easy-to-manage website. Please include your portfolio of similar projects in your proposal.
+Budget: I am open to discussing rates based on the scope of the work and developer expertise.
+Additional Information:
+I am happy to collaborate on ideas and provide detailed feedback during the development process.
+Future work is possible, as I may need ongoing support for updates and maintenance.
+for the colors of the website i am looking for something warm/ vintage but elegant. I have attached a photo for color reference.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Identify singer or one of his songs</t>
+          <t>Photo Editing</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1137,35 +1154,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$10-11 USD</t>
+          <t>$10-30 USD</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4 proposals</t>
+          <t>53 proposals</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Peshawar,  Pakistan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Find me singer's name or one of his music videos.
-Singer is male; and is having yellow hair, which is bit lengthy.
-Music video 1:
-In one scene, he enters basement in his home with other people. And I think he plays guitar there with other people using other instruments.
-Music video 2:
-Video is shot in night and outside. In one scene there're pillars. And the singer passes his hand on his girlfriend's face.
-I've seen them when I was kid. They're released before 2008.</t>
+          <t>I have about 57 images where I need a soft blue sky added and the people in the back less faded and an overall cleaner look</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Creat a photo montage</t>
+          <t>HVAC Systems Maintenance Expert Needed</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1175,29 +1186,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$10-30 CAD</t>
+          <t>$250-750 USD</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>36 proposals</t>
+          <t>15 proposals</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Saint-Jérome,  Canada</t>
+          <t>Riyadh,  Saudi Arabia</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Create a visual for a Facebook post. The visual should be a realistic montage, as if it were from a photo shoot.</t>
+          <t>I am seeking a skilled mechanical technician with expertise in HVAC systems. The primary focus will be on routine maintenance, with a specific emphasis on the inverter and condenser components. Ideal candidates should have a strong background in HVAC systems, with prior experience in both servicing and maintaining these systems. 
+Key Responsibilities:
+- Conduct regular maintenance on the HVAC system
+- Inspect and service the inverter and condenser
+- Identify and fix any potential issues before they become serious problems 
+Skills and Experience Required:
+- Proven experience with HVAC systems
+- Strong mechanical skills
+- Previous work as a mechanical technician highly desirable
+- Ability to work independently and efficiently</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Realistic Couple Portrait</t>
+          <t>No Title Available</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1207,38 +1227,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>₹1500-12500 INR</t>
+          <t>Not Disclosed</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11 proposals</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Melbourne,  Australia</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>I'm looking for a professional digital artist who can create a realistic art piece of a couple using two different photos of them. 
-Key Requirements:
-- The final piece should depict the couple in a beautiful open environment.
-- The artist must have experience with realistic digital art and be able to seamlessly blend the two photos to create a cohesive image.
-Ideal Skills:
-- Proficient in digital art software.
-- Strong understanding of realistic art styles.
-- Experience with creating outdoor setting backgrounds.
-- Ability to work with and combine multiple images.
-- Able to use his/her imagination to create a beautiful photo.</t>
+          <t>No Description Available</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Instagram Posts Text Editor</t>
+          <t>No Title Available</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1248,34 +1259,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>£10-15 GBP / hour</t>
+          <t>Not Disclosed</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25 proposals</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Slough,  United Kingdom</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>I'm seeking a skilled editor to fine-tune the text of my Instagram marketing materials. The ideal candidate should have a strong understanding of Instagram's unique style and audience, and be able to enhance the effectiveness of my posts through precise text adjustments. 
-Key Requirements:
-- Proven experience editing social media content, particularly for Instagram
-- Excellent command of English language and grammar
-- Strong understanding of Instagram’s style and audience
-- Ability to enhance content's effectiveness through text adjustments</t>
+          <t>No Description Available</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Python Programmer Needed for Debugging Sets</t>
+          <t>Django Developer for UI Enhancement</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1285,39 +1291,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>₹1500-12500 INR</t>
+          <t>$1500-3000 USD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7 proposals</t>
+          <t>Open for bidding</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Kanpur,  India</t>
+          <t>Atlanta,  United States</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>I need a Python programmer who can debug and fix issues related to sets in a data processing program.
+          <t>I need a seasoned Python developer with extensive experience in the Django framework. The project involves enhancing an existing web application, specifically focusing on the user interface.
 Key Requirements:
-- Modify a program without using 'set', 'sort', '&amp;', to get the same output. 
-The ideal candidate will have a strong understanding of Python and set implementation, along with experience in data processing.
-program  to be modified is attached
-run the program and note down the output for first 1000 natural numbers
-modified program will not use any data structure like 'set' or dictionary and no sort is used
-and should give the same output as original program(attached)
-for every number our program gives 10 unordered numbers as output
-the modified program should give the same unordered output 
-refer attachments</t>
+- Improve User Experience Flow: The primary goal is to make the web application more intuitive and user-friendly. You will need to analyze the current user interface and implement changes that enhance the overall user experience.
+Ideal Skills:
+- Python
+- Django
+- UI/UX Design
+- Web Development</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Image Background Removal &amp; Resize</t>
+          <t>Cyprus Company Registration &amp; Bank Account Help</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1327,33 +1330,34 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$10-30 USD</t>
+          <t>$250-750 USD</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>66 proposals</t>
+          <t>9 proposals</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Huntington Station,  United States</t>
+          <t>Jerusalem,  Israel</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>I need two images edited for print. The requirements are as follows:
-- Change the background of both images from white to clear (transparent).
-- Resize each image to reduce the size by 20%.
-- Final output format should be PNG, without any adjustments to the colors or brightness of the original images. 
-Ideal skills for this project include image editing and graphic design, with experience in preparing images for print. Please keep the original colors and brightness of the photos.</t>
+          <t>I'm looking for assistance in opening a bank account in Cyprus and setting up a company there. 
+Skills and Experience Ideal for this Job:
+- Knowledge and experience in company registration in Cyprus.
+- Familiarity with Cyprus bank account opening procedures.
+- Legal expertise for handling formalities (if necessary).
+- Understanding of different types of companies in Cyprus.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>No Title Available</t>
+          <t>Looks like the page you are looking for doesn't exist.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1363,7 +1367,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Not Disclosed</t>
+          <t>Perhaps you were trying to do this?</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1417,7 +1421,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Meta Ads Expert for Interactive Sessions</t>
+          <t>Adventure-Filled Children's Book Writer</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1427,29 +1431,33 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$25-50 USD / hour</t>
+          <t>£250-750 GBP</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5 proposals</t>
+          <t>38 proposals</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Doha,  Qatar</t>
+          <t>London,  United Kingdom</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>I'm looking for a Meta Ads expert for one or two online sessions. I'll share my screen, and you guide me and answer my questions. I have a Meta Business account and some experience, but I need expert guidance.
-Session Goals:
-- Learn how to set up ad campaigns focused on brand awareness on Instagram.
-Ideal Skills and Experience:
-- Strong expertise in Meta Ads
-- Proven experience with Instagram ad campaigns
-- Excellent communication skills
-- Patience and ability to explain technical concepts in a clear and understandable way.</t>
+          <t>I'm seeking a skilled children's book writer to craft a playful and humorous adventure story for ages 2 to 5. 
+Key Requirements:
+- Experience in writing children's literature, particularly for the 2-5 age group.
+- Ability to weave a captivating adventure narrative.
+- Proficiency in creating playful and humorous text.
+- Understanding of the language and themes suitable for young children.
+Ideal Skills:
+- Creativity and originality in story-telling.
+- Excellent command of simple, clear, and engaging language.
+- Understanding of rhythm, rhyme, and repetition in children's writing.
+- Experience with children's book publishing process is a plus. 
+Your work will play a significant role in sparking adventure and laughter in the hearts of our little readers.</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1496,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Monthly Video Editing for Reels, Shorts, Vlogs</t>
+          <t>Website Development</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1498,34 +1506,34 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>₹100-400 INR / hour</t>
+          <t>₹1500-12500 INR</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6 proposals</t>
+          <t>24 proposals</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Bengaluru,  India</t>
+          <t>KARELI,  India</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>I'm seeking a skilled video editor for my reels, shorts, and vlogs on a monthly basis. The ideal candidate should be adept at creating fast-paced and dynamic edits that can engage viewers effectively.
-Key requirements:
-- Proficiency in video editing software
-- Experience with social media video formats
-- Ability to create fast-paced and dynamic edits
-- Open to creative input and suggestions</t>
+          <t>I'm looking for an experienced web developer. The site should be user-friendly, smooth and capable of hosting a variety of content. Key responsibilities include:
+- Developing a responsive, SEO-optimized WordPress site
+- Implementing a clean, modern design
+- Ensuring robustness for potential high traffic
+- Providing training on basic site management
+Ideal skills for this project include a strong background in web development, specifically with WordPress, and experience in creating similar types of sites. A good understanding of SEO and responsive design is crucial. Please include examples of your previous WordPress projects in your bid.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>No Title Available</t>
+          <t>Website Development</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1535,29 +1543,33 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Not Disclosed</t>
+          <t>$25-30 USD / hour</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>No Location Available</t>
+          <t>84 proposals</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>No Location Available</t>
+          <t>Le Bardo,  Tunisia</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>No Description Available</t>
+          <t>looking for a skilled web developer to create a website like this one: [login to view URL]
+Skills Requirements:
+- Proficient in WordPress and WooCommerce
+- Strong understanding of Classic and Elegant design principles
+- Experience in developing e-commerce sites with product filtering, and wish list features.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SEO Expert for Local Promotion of E-commerce Stores in Europe</t>
+          <t>AppMetrica Analytics Setup for Tracking analytics</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1567,38 +1579,35 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$10-30 AUD</t>
+          <t>$10-30 USD</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>47 proposals</t>
+          <t>3 proposals</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>London,  United Kingdom</t>
+          <t>New Delhi,  India</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>I'm seeking an SEO professional to help elevate the visibility and sales of my e-commerce store across several European countries including Germany, France, Netherlands, Poland, Sweden, and Norway. 
-Key Responsibilities:
-- Develop and execute an effective SEO strategy targeting major cities.
-- Create content optimized for German and French languages.
-- Focus on boosting online sales and improving search engine rankings.
-Ideal Skills:
-- Proven SEO expertise with a focus on European markets.
-- Fluent in German and French, with excellent content creation skills.
-- Strong track record in e-commerce SEO.
-Please submit proposals with examples of previous work and pricing.</t>
+          <t>I need a skilled developer with expertise in AppMetrica to set up new analytics for my utility app on both iOS and Android platforms. 
+Key Requirements:
+- Expertise in AppMetrica
+- Experience with both iOS and Android
+- Understanding of utility app metrics
+- Skills in setting up new analytics
+Your bid should reflect your past experience with similar projects, particularly with AppMetrica and utility apps.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KickStarter Campaign Content Creation</t>
+          <t>Instagram Customer Acquisition Automation</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1608,36 +1617,38 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$30-250 CAD</t>
+          <t>€750-1500 EUR</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13 proposals</t>
+          <t>31 proposals</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TORONTO,  United States</t>
+          <t>Mülheim,  Germany</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>My upcoming KickStarter platform campaign has to be a success in order for me start my business! I really need to know the people that are truly willing to support me. 
-I have a 3 minute video for project uploaded on YouTube, I have some information about the project that could help for pitch/content writing, I can share a sample of Reward structure of one competitor.
-Key requirements include:
-1. Crafting attractive pitch/content
-2. Complete account &amp; campaign setup
-3. Campaign images (up to 4)
-4.  High-resolution Infographics &amp; Gifs (up to 4)
-5. Rewards structure</t>
+          <t>I need a programmer to develop an application that leverages algorithms to identify potential new customers on Instagram and automatically send them promotional messages. The aim is to enhance my visibility and reach on this platform.
+Key Components:
+- Customer Identification: The program should be able to find prospective customers using hashtags and algorithms. It should be able to sift through Instagram's vast user base to pinpoint individuals who could be interested in my products or services.
+- Message Automation: Once potential customers are identified, the program should automatically send them promotional offers. The messages should be sent in a way that appears organic and not spammy, to avoid being flagged by Instagram's spam filters.
+Desired Skills:
+- Proficiency in programming and algorithm development.
+- Experience with social media automation tools, particularly Instagram.
+- Understanding of Instagram's hashtag system and algorithms.
+Experience with Rule-Based Systems: Since I am specifically interested in using rule-based systems for this project, a solid understanding and experience in creating and implementing these types of algorithms is crucial. I want to ensure that the program can follow a set of defined rules to identify potential customers and send messages.
+This project has the potential to significantly increase my brand's visibility on Instagram, so I am looking for a freelancer who is capable of delivering a high-quality program that meets these requirements.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>No Title Available</t>
+          <t>Dropshipping Website with Market Analytics &amp; Ad Scraping</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1647,29 +1658,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Not Disclosed</t>
+          <t>£750-1500 GBP</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>No Location Available</t>
+          <t>67 proposals</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>No Location Available</t>
+          <t>Hull,  United Kingdom</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>No Description Available</t>
+          <t>I'm seeking a skilled web developer to build a dropshipping website akin to Minea. This site should not only facilitate sales but primarily serve as a robust platform for market research and analytics. Key features must include:
+- Ad Scraping: The site should have the capability to scrape advertisements from major platforms including Facebook, Instagram, and TikTok. 
+- Product Discovery: There should be an automated recommendation system for product discovery, drawing from sources like AliExpress. 
+- User Dashboard: A comprehensive user dashboard that tracks and visualizes market trends and insights. 
+- Secure Login: Implement a secure login system using JWT/OAuth2 protocols. 
+- Subscription Model: The website should operate on a subscription basis, providing different tiers of access and data. 
+- Responsive Front-End: The front-end should be built using React.js, ensuring a seamless experience across all devices.
+The ideal candidate would have a strong background in web development, specifically in creating ecommerce and analytic platforms. Proficiency in React.js is a must, along with experience in implementing secure login systems and subscription models. Familiarity with ad scraping and product discovery systems will be a significant advantage. 
+Please provide examples of similar projects you have completed in your proposal.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Asterisk Server Credit Check Implementation</t>
+          <t>Business-Centric Hotel Plans Needed</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1679,31 +1698,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>£20-250 GBP</t>
+          <t>$1500-3000 USD</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>36 proposals</t>
+          <t>44 proposals</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>High Wycombe,  United Kingdom</t>
+          <t>Baldwin Park,  United States</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>I'm looking to implement a system on my Asterisk server that checks a caller's credit based on the number dialed.
-Key Requirements:
-When user tries to make a call, send the dialled number to the API, the API will return how many minutes of credit they have for that number. If they have &gt; 1 minute of credit available then allow the call to go ahead, otherwise send caller to a pre-recorded message advising them they have no credit (we will supply the message). During the call if credit falls below 2 minutes play "beep" warning to the caller every 15 seconds, when credit runs out disconnect called party and send caller to pre-recorded message advising they ran out of credit (we will supply the message). The API is a standard RESTful API that works with JSON that we have written, we can adjust the endpoints as required to make this job as easy as possible.. Experience with Asterisk, telephony systems, and interfacing with APIs is crucial.</t>
+          <t>I'm looking for a professional License architect &amp; engineer in the state of California, to draft plans for a new hotel.
+Candidates  must provee previous work in similar project.   Must Familiar with IBC, California Building Code, NFPA, NEC and any other local code. 
+This project is located in California USA. 
+Building type; Hospitality ( Hotel)
+Location; Anderson California. 
+Franchise;  Staybridge By IHG and a Homewood Suites. In same lot. 
+CAD files for Prototype will be provide, so this work shall be follow by the prototype. 
+1st Phase Plot Plan. 
+2nd Phase Architecture Plan &amp; Civil Plan, Landscape Plan, Structural. 
+3rd Phase MEP
+4th phase Fire Safety. 
+Candidate must to make as many revisions need it in order to get the plans approved by the city. 
+In addition to this all changes  it made to the original plans, will be pay separate.  So follow up after approve plans  must be need it. 
+Please don’t send any messages if you don’t have previous experience. Or you disagree with the terms.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Shopify Store Design for Physical Products-TECH</t>
+          <t>Stunning Android E-commerce Mobile App - 12/09/2024 11:06 EDT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1713,35 +1743,34 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$30-250 USD</t>
+          <t>$15-25 USD / hour</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>108 proposals</t>
+          <t>36 proposals</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Bucharest,  Romania</t>
+          <t>Pasuruan,  Indonesia</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>I need a professional web designer to help me create an engaging and user-friendly Shopify store focused on selling physical products.
+          <t>I'm in need of a top-notch Android developer to help me create a beautiful and user-friendly E-commerce mobile app. 
 Key Requirements:
-- Extensive experience in Shopify design
-- Strong web design skills
-- Portfolio showcasing previous Shopify store designs
-- Ability to create a store with a seamless shopping experience
-Please include your relevant experience and a portfolio of previous work in your bid.</t>
+- Proficient in Android app development.
+- Previous experience in building E-commerce mobile apps is a plus.
+- Strong skills in Graphic Design to ensure the app is visually appealing.
+Your main tasks will include designing the app, ensuring smooth functionality and implementing necessary features for an E-commerce platform. Creativity and attention to detail are essential for this project.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Selling General Electric Gas Turbine</t>
+          <t>No Title Available</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1751,36 +1780,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$750-1500 USD</t>
+          <t>Not Disclosed</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1 proposal</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Dammam,  Saudi Arabia</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>I am in need of a gas turbine engineer to assist me in selling my General Electric gas turbine. The turbine is in good, used condition and I'm looking to generate immediate cash flow from the sale. 
-Key Requirements:
-- Expertise in gas turbines, specifically General Electric models
-- Experience in selling industrial equipment
-- Ability to assess and market the turbine's value
-- Strong negotiation skills
-- Knowledge of potential buyers in the industry
-The ideal freelancer for this job would have a solid background in gas turbine engineering and sales. They should be able to handle the sale professionally, ensuring I receive the best possible price for the turbine.</t>
+          <t>No Description Available</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>No Title Available</t>
+          <t>Consumer Electronics Product Design Expert</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1790,29 +1812,30 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Not Disclosed</t>
+          <t>₹100-400 INR / hour</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>No Location Available</t>
+          <t>4 proposals</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>No Location Available</t>
+          <t>chandigarh,  India</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>No Description Available</t>
+          <t>I'm looking for a talented mechanical engineer who specializes in product design, specifically for the consumer electronics industry. Your role will be pivotal in bringing innovative and functional designs to life. 
+Ideal Skills and Experience:</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Metaverse Development for prototype creation (3D Modelling)</t>
+          <t>No Title Available</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1822,34 +1845,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>₹600-1500 INR</t>
+          <t>Not Disclosed</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2 proposals</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Agra,  India</t>
+          <t>No Location Available</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>I'm looking for an experienced AR and VR developer to help me create a brand new application. The specifics of the app's purpose and targeted platform are still being finalized, so flexibility and creativity will be key. 
-Ideal candidates should have:
-- Demonstrated experience in AR &amp; VR application development
-- Strong problem-solving skills
-- Ability to work creatively and flexibly
-- Excellent communication skills for project updates and brainstorming sessions.</t>
+          <t>No Description Available</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Directory of Gardeners and Landscapers Website Development</t>
+          <t>E-commerce Android App Development</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1859,31 +1877,6025 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>$25-50 USD / hour</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>28 proposals</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Gresik,  Indonesia</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I'm looking for a talented mobile app developer to help me create an Android-based e-commerce application. 
+Key Responsibilities:
+- Designing and developing a seamless, user-friendly e-commerce app for Android.
+- Integrating secure payment gateways and smooth checkout processes.
+- Implementing effective product search and filter options.
+Ideal Skills:
+- Proven experience in mobile app development, specifically for Android.
+- Strong portfolio of e-commerce applications.
+- Proficient in implementing secure payment systems.
+Your role will be pivotal in bringing this project to fruition. Looking forward to your bids.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Unity Developer Needed for Evaluation Period with Potential Long-Term Opportunity</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$10-11 USD / hour</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8 proposals</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NOIDA,  India</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>We are seeking a skilled and experienced Unity Developer for a temporary evaluation period, with the potential for a long-term engagement. This role is open to new candidates who have not previously worked with us, as we are looking for fresh talent to join our team. The initial period will be paid and serve as an assessment of communication skills, technical expertise, and overall performance.
+Requirements:
+Proven experience with Unity development (please specify number of years in your application).
+Strong understanding of Unity tools and development workflow.
+Preferred Skills:
+Experience with game development, AR/VR projects,</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Monthly Financial Reporting &amp; Bookkeeping</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$8-15 USD / hour</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>28 proposals</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Pompano Beach,  United States</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I'm looking for a professional with extensive experience in bookkeeping and financial reporting who can assist me on a monthly basis.
+Key Responsibilities:
+- Prepare and present the Income Statement, Balance Sheet, and Cash Flow Statement using Business Central.
+Ideal Skills and Experience:
+- Proven experience in bookkeeping and financial reporting.
+- Proficient in using Business Central.
+- Strong understanding of accounting principles.
+- Excellent attention to detail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Animator for 1-Minute Educational Tech Videos (Instagram, TikTok, YouTube)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$30-250 USD</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>34 proposals</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I am looking for a skilled animator to create engaging and informative 1-minute animations for a social media series aimed at educating young Nigerians about cloud computing and tech careers, with a focus on AWS (Amazon Web Services). The animations will be used on Instagram, TikTok, and YouTube.
+Each video will combine technical illustrations, basic diagrams, and animation effects with a voiceover. The voiceover will explain concepts, and the animations will visually support the content being discussed.
+Project Overview:
+We are creating a series to help introduce and explain cloud computing in simple terms. The series starts by explaining traditional on-premise architectures and gradually transitions into cloud computing concepts. Each episode will be 1-minute long, and we’ll focus on making these short clips visually engaging for social media.
+Example of First Video: "On-Premise Architecture"
+In the first episode, we will explain what on-premise architecture is and how it worked before the rise of cloud computing. The animation should include:
+•⁠  ⁠Illustrations of a physical office/data center: Show a big room with racks of servers.
+•⁠  ⁠Representation of servers: A close-up or simplified diagram of how servers look and store data.
+•⁠  ⁠Challenges of on-prem architecture: Illustrations that represent challenges like high costs, limited scalability, and maintenance (e.g., a server with a price tag, growing storage problems, and IT staff fixing servers).
+This first animation will be used as the foundation for the rest of the series, so it’s important to set the tone and visual style.
+What I’m Looking For:
+•⁠  ⁠Experience: Previous experience creating educational or explainer videos, especially on tech-related topics.
+•⁠  ⁠Platform Knowledge: Familiarity with the types of animations that perform well on Instagram, TikTok, and YouTube (especially short-form, engaging content).
+•⁠  ⁠Style: Ability to create clean, simple, and professional animations that appeal to a young audience. We want something that feels modern, fun, and informative.
+•⁠  ⁠Communication: You should be comfortable collaborating on visual ideas and iterating based on feedback.
+Requirements:
+•⁠  ⁠1-minute animations for each episode (ongoing series).
+•⁠  ⁠Illustrations that match the educational content being voiced over.
+•⁠  ⁠Must be delivered in formats suitable for Instagram, TikTok, and YouTube.
+•⁠  ⁠Open to creating templates or reusable assets for future videos (optional but a plus).
+Deliverables:
+•⁠  ⁠Animations in .mp4 format optimized for social media platforms.
+•⁠  ⁠Files in various resolutions: 1080x1080 (Instagram), 1080x1920 (TikTok), and 1920x1080 (YouTube).
+•⁠  ⁠A consistent visual style across all episodes.
+Budget: Please provide your rate per 1-minute animation. I am looking for a long-term collaboration, as this will be an ongoing series with weekly or bi-weekly episodes.
+To Apply:
+•⁠  ⁠Please provide examples of your previous animation work, especially educational or tech-related content.
+•⁠  ⁠Include your availability and estimated turnaround time for a 1-minute video.
+Looking forward to working with a creative professional who can bring these tech concepts to life in an engaging way!</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Appeals Brief Proofreading &amp; Compliance Review</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$30-250 USD</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>34 proposals</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Nashville,  United States</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I need a meticulous proofreader to examine my 55-page brief for adherence to court filing requirements and Rule 27. The brief is already written and primarily formatted, but it needs a thorough check for format and structure compliance. There are 5 arguments remaining to be reviewed. 
+Key Tasks:
+- Proofread the document for compliance with court's filing requirements
+- Ensure the document adheres to Rule 27
+- General proofreading
+Ideal Skills:
+- Strong legal background
+- Prior experience with court documents
+- Excellent attention to detail</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2D and 3D Room Rendering from DWG</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>£5-10 GBP / hour</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>33 proposals</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>HARROGATE,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>I'm looking for a skilled professional who can create detailed 2D and 3D product renders from provided DWG files, as well as then creating renders of various rooms in different styles of houses. The rooms include living rooms, dining rooms, and bedrooms, library room, etc.
+Key Requirements:
+- Ability to transform dwg files into 2d and 3d product renders.
+- Ability to place these renders into a variety of room styles, primarily modern and traditional.
+- For the living rooms, a broader range of styles will be needed.
+Ideal Candidates:
+- Proficient in using design software compatible with DWG files.
+- Experience in creating detailed and high-quality 2D and 3D renders.
+- A strong portfolio showcasing a variety of room styles.
+- Ability to meet deadlines and deliver quality work. 
+This is a great opportunity for freelancers with a passion for interior design and a keen eye for detail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hotel Booking Website Development</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>$10-30 USD</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>46 proposals</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Egg Harbor Township,  United States</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I'm looking for a freelancer to create a bright and colorful hotel booking website on WordPress or any other platform. This site must have low maintenance costs and be easy for me to edit. Key features must include:
+- Payment Processing: The site should support Credit/Debit Cards, PayPal, and Bank Transfers.
+- Chat Option: A customer support chat feature is crucial.
+- SEO: The site needs to be SEO friendly to attract more visitors.
+- Additional Lead Matrices: Any other features that could help generate more revenue are welcome.
+I'll provide the domain, hosting, and pictures. The ideal candidate for this job should have extensive experience with WordPress, eCommerce, and SEO. A knack for creating bright and colorful designs will be a plus. Please include examples of similar projects you've completed in your bid.
+The max budget for this project is $50. There will be no further negotiations. IF you are unable to complete the entire project within the given budget then do not bid or remove your bid. Post "HOTEL" in your proposal so I know you have read Project description, or else I will not message you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>haynunmanurung20</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>$15-25 USD / hour</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>48 proposals</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Manado,  Indonesia</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I'm looking to develop a social networking website named 'mahasiswa24'. This platform is aimed primarily at students, enabling them to connect, share, and communicate with one another. 
+Core Features:
+- User Profiles: The website should allow users to create and customize their own profiles. These profiles will display their interests, studies, and activities.
+Skills and Experience Needed:
+- Web Development: A strong background in web development is crucial for this project.
+- Social Networking Site Experience: Prior experience in developing social networking sites will be a significant advantage.
+- UI/UX Design: The ideal candidate should also have skills in UI/UX design to create an intuitive and engaging platform for users.a</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Welcome back</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Social Media Multilingual Translator Needed</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>$250-750 USD</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>121 proposals</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>lyon,  Tunisia</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I'm seeking a web developer to create a gardening directory website. The primary goal of this platform is to list gardening professionals.
-i will choose the person who already created this kind of website, need to see a sample of his work
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6 proposals</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Poltava,  Ukraine</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I'm looking for a quality translator who can translate my Instagram texts into various languages. The main goal of these translations is to promote my products or services. 
+Skills and experience required:
+- Proficient in Spanish, French, English, Arabic, Italian, Polish
+- Experience in marketing translations
+- Understanding of social media and its language
+- Able to deliver high-quality translations consistently
+- Long-term commitment is needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>YouTube Gaming Video Editor</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>$30-250 USD</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>31 proposals</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Maricopa,  United States</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I'm in need of a skilled video editor with experience in gaming content. The video will be uploaded to my YouTube channel, so familiarity with YouTube's style and audience is a plus.
+Key Responsibilities:
+- Edit raw gameplay footage into engaging content
+- Create visually appealing montages with sound effects and music
+- Ensure the final product is optimized for YouTube
+Ideal Skills:
+- Proficiency in video editing software
+- Experience with gaming content
+- Creative mindset with a good understanding of pacing, music, and visuals
+Please provide examples of previous gaming videos you have edited.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>YouTube Video Editing Expert Needed</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4 proposals</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Indore,  India</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>I'm seeking a talented video editor to enhance my YouTube content. Your primary responsibilities will include:
+- Adding effects and transitions to create engaging and professional-quality videos.
+Ideal skills and experience include:
+- Proficiency in video editing software (like Adobe Premiere Pro, Final Cut Pro, etc.)
+- Prior experience editing YouTube content.
+- Understanding of what makes a video entertaining and engaging for viewers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Wikipedia Page Creation for Ahmad Haffar -- 3</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>$250-750 USD</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>23 proposals</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Dubai,  United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>I'm seeking a skilled professional to create a comprehensive Wikipedia page for Ahmad Haffar. The page should thoroughly cover Haffar's professional career, personal life, and contributions to the community. 
+Key Requirements:
+- Full research: The freelancer will need to find all sources, both primary and secondary, to support the content. This includes news articles, books, interviews, and personal documents.
+- Writing: The freelancer should be able to write in a neutral, encyclopedic tone that adheres to Wikipedia's guidelines.
+- Publishing: The final task will be to publish the page on Wikipedia.
+Ideal Skills and Experience:
+- Proven experience in Wikipedia page creation and understanding of its guidelines.
+- Exceptional research and writing skills.
+- Ability to write in a neutral, encyclopedic tone.
+- Prior experience with both primary and secondary source research.
+- Familiarity with the Wikipedia publishing process. 
+I am looking for a freelancer who is not only capable of meeting these requirements but who can also present Haffar's life and achievements in a captivating manner.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Welcome back</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Business Website Designer</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>₹100-400 INR / hour</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>17 proposals</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Hisar,  India</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>I'm looking for a talented web designer to create a professional and engaging business site for me. The primary goal of this website will be to showcase my products and services.
 Key Features:
-- User-friendly interface where users can search for professionals by location.
-- Comprehensive profiles for each professional, including contact details, services offered, customer reviews, and galleries of previous work.
+- A contact form to enable potential customers to reach out
+Ideal Skills:
+- Proven experience in designing business websites
+- E-commerce knowledge would be a plus
+- Excellent understanding of user-friendly design principles
+- Proficient in creating responsive designs
+- Knowledge of SEO best practices
+Please include examples of your previous work with your bid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Algolia Search Integration Enhancement</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>€30-250 EUR</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11 proposals</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>MILTON KEYNES,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I'm looking for an expert to help refine and finish the Algolia Search integration with our platform. The platform is connected, but the search result accuracy and training models need improvements. 
+Key Responsibilities:
+- Improve the accuracy of search results
+- Train models using user data
+- Utilize user-generated content for model training
+Ideal Skills:
+- Proficiency in Algolia Search
+- Experience in search optimization
+- Skills in data analysis and model training
+Please note, the goal is to enhance the search experience on our platform.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>DGII Facturacion Electronica odoo Republica Dominicana</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>€750-1500 EUR</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>33 proposals</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Aviles,  Spain</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Necesito hacer un módulo para Odoo 14 o superior para integrar con la Facturación Electrónica de República Dominicana.
+Esta es la documentación:
+[login to view URL]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SAAS Product Website UI Design</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>$8-15 USD / hour</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>76 proposals</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Sharjah,  United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>I'm looking for a talented UI designer to create a user interface for my e-commerce website. The design should be intuitive, attractive, and conducive to driving sales.
+Key Requirements:
+- Design for the Homepage and Product pages
+- Expertise in Website UI design
+- Prior experience in designing SAAS Product site UIs
+- Understanding of user-centric design principles
+- Proficiency in design tools like Sketch, Figma, or Adobe XD
+Your design should enhance user experience, promote easy navigation and ultimately lead to increased conversions. Please provide a portfolio of your previous work in SAAS UI design.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>YouTube Video Editing Needed</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>₹600-1000 INR</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4 proposals</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Delhi,  India</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>I am looking for a skilled video editor to help edit my YouTube videos. The editing style should be simple and clean, without too many distractions or unnecessary cuts.
+Key Responsibilities:
+- Edit video footage into a coherent and engaging final product
+- Incorporate background music at appropriate parts of the video
+- Use transitions to smoothly segue between different segments of the video
+Ideal Skills:
+- Proficiency in video editing software
+- Previous experience editing YouTube content
+- Ability to adhere to a specific editing style
+- Strong understanding of pacing and timing in video editing
+- Creative approach to utilizing music and transitions 
+I am open to seeing examples of previous work and discussing how you can help enhance the quality of my channel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Admin Support</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>£2-5 GBP / hour</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>37 proposals</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Barnet,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>I'm in need of an efficient, dedicated professional to assist with various administrative tasks, primarily focusing on customer support via email. 
+Ideal Candidates Should Have:
+- Strong email communication skills, with an ability to handle, respond and manage customer queries professionally and promptly.
+- Experience in data entry, email management, and scheduling appointments.
+- Prior experience in customer support, specifically email support.
+- A proactive approach towards office management tasks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Food Vlog &amp; Hotel Navigator App</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8 proposals</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Chennai,  India</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>I'm looking for a skilled UI/UX designer to help create a mobile application. The app should allow users to view food vlog videos, search for hotels and navigate through a map.
+Key features include:
+- Comprehensive hotel details including timing, address, phone, rating, signature dishes, and prices.
+- Advanced navigation features such as turn-by-turn directions and route optimization.
+- User-friendly interface that seamlessly integrates video viewing, hotel searching, and map navigation.
+Freelancers with experience in designing for mobile applications, particularly in the travel and food sectors, will be preferred. A keen understanding of UI/UX principles and a knack for creating engaging and intuitive designs is essential. Please include examples of relevant past work in your proposal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Custom-Built E-commerce Website Development</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>$1500-3000 CAD</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>114 proposals</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Ottawa,  Canada</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>I'm seeking a skilled web developer to create a comprehensive, custom-built E-commerce site for me.
+Essential Features:
+- Shopping Cart: Users should be able to shop and add items to their cart seamlessly.
+- SEO-Friendly: The site needs to be optimized for search engines to enhance visibility.
+- User Accounts: Implementation of account creation and management is crucial.
+- Inventory Management: The website should have a robust system for managing inventory.
+- Security: The site must have SSL Certification, a secure payment gateway, and data encryption to ensure safety and security.
+- CMS: I need an easy-to-use CMS that allows me to add/update products effortlessly.
+Control:
+I want full control over all updates and changes to the website, not just the content.
+Ideal Skills:
+- Expertise in custom website development.
+- Proficient in building E-commerce platforms.
+- Comprehensive knowledge of SEO strategies.
+- Experience with implementing robust security features.
+- Skilled in developing user-friendly CMS.
+I'm looking for a professional who can deliver a high-quality, secure, and easy-to-manage website. Please include your portfolio of similar projects in your proposal.
+Budget: I am open to discussing rates based on the scope of the work and developer expertise.
+Additional Information:
+I am happy to collaborate on ideas and provide detailed feedback during the development process.
+Future work is possible, as I may need ongoing support for updates and maintenance.
+for the colors of the website i am looking for something warm/ vintage but elegant. I have attached a photo for color reference.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Photo Editing</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>$10-30 USD</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>53 proposals</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>I have about 57 images where I need a soft blue sky added and the people in the back less faded and an overall cleaner look</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>HVAC Systems Maintenance Expert Needed</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>$250-750 USD</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>15 proposals</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Riyadh,  Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>I am seeking a skilled mechanical technician with expertise in HVAC systems. The primary focus will be on routine maintenance, with a specific emphasis on the inverter and condenser components. Ideal candidates should have a strong background in HVAC systems, with prior experience in both servicing and maintaining these systems. 
+Key Responsibilities:
+- Conduct regular maintenance on the HVAC system
+- Inspect and service the inverter and condenser
+- Identify and fix any potential issues before they become serious problems 
+Skills and Experience Required:
+- Proven experience with HVAC systems
+- Strong mechanical skills
+- Previous work as a mechanical technician highly desirable
+- Ability to work independently and efficiently</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Django Developer for UI Enhancement</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>$1500-3000 USD</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Open for bidding</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Atlanta,  United States</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>I need a seasoned Python developer with extensive experience in the Django framework. The project involves enhancing an existing web application, specifically focusing on the user interface.
+Key Requirements:
+- Improve User Experience Flow: The primary goal is to make the web application more intuitive and user-friendly. You will need to analyze the current user interface and implement changes that enhance the overall user experience.
+Ideal Skills:
+- Python
+- Django
+- UI/UX Design
+- Web Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Cyprus Company Registration &amp; Bank Account Help</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>$250-750 USD</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>9 proposals</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Jerusalem,  Israel</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>I'm looking for assistance in opening a bank account in Cyprus and setting up a company there. 
+Skills and Experience Ideal for this Job:
+- Knowledge and experience in company registration in Cyprus.
+- Familiarity with Cyprus bank account opening procedures.
+- Legal expertise for handling formalities (if necessary).
+- Understanding of different types of companies in Cyprus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Looks like the page you are looking for doesn't exist.</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Perhaps you were trying to do this?</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Adventure-Filled Children's Book Writer</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>£250-750 GBP</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>38 proposals</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>London,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>I'm seeking a skilled children's book writer to craft a playful and humorous adventure story for ages 2 to 5. 
+Key Requirements:
+- Experience in writing children's literature, particularly for the 2-5 age group.
+- Ability to weave a captivating adventure narrative.
+- Proficiency in creating playful and humorous text.
+- Understanding of the language and themes suitable for young children.
+Ideal Skills:
+- Creativity and originality in story-telling.
+- Excellent command of simple, clear, and engaging language.
+- Understanding of rhythm, rhyme, and repetition in children's writing.
+- Experience with children's book publishing process is a plus. 
+Your work will play a significant role in sparking adventure and laughter in the hearts of our little readers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Website Development</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>24 proposals</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>KARELI,  India</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>I'm looking for an experienced web developer. The site should be user-friendly, smooth and capable of hosting a variety of content. Key responsibilities include:
+- Developing a responsive, SEO-optimized WordPress site
+- Implementing a clean, modern design
+- Ensuring robustness for potential high traffic
+- Providing training on basic site management
+Ideal skills for this project include a strong background in web development, specifically with WordPress, and experience in creating similar types of sites. A good understanding of SEO and responsive design is crucial. Please include examples of your previous WordPress projects in your bid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Website Development</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>$25-30 USD / hour</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>84 proposals</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Le Bardo,  Tunisia</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>looking for a skilled web developer to create a website like this one: [login to view URL]
+Skills Requirements:
+- Proficient in WordPress and WooCommerce
+- Strong understanding of Classic and Elegant design principles
+- Experience in developing e-commerce sites with product filtering, and wish list features.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>AppMetrica Analytics Setup for Tracking analytics</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>$10-30 USD</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3 proposals</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>New Delhi,  India</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>I need a skilled developer with expertise in AppMetrica to set up new analytics for my utility app on both iOS and Android platforms. 
+Key Requirements:
+- Expertise in AppMetrica
+- Experience with both iOS and Android
+- Understanding of utility app metrics
+- Skills in setting up new analytics
+Your bid should reflect your past experience with similar projects, particularly with AppMetrica and utility apps.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Instagram Customer Acquisition Automation</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>€750-1500 EUR</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>31 proposals</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Mülheim,  Germany</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>I need a programmer to develop an application that leverages algorithms to identify potential new customers on Instagram and automatically send them promotional messages. The aim is to enhance my visibility and reach on this platform.
+Key Components:
+- Customer Identification: The program should be able to find prospective customers using hashtags and algorithms. It should be able to sift through Instagram's vast user base to pinpoint individuals who could be interested in my products or services.
+- Message Automation: Once potential customers are identified, the program should automatically send them promotional offers. The messages should be sent in a way that appears organic and not spammy, to avoid being flagged by Instagram's spam filters.
+Desired Skills:
+- Proficiency in programming and algorithm development.
+- Experience with social media automation tools, particularly Instagram.
+- Understanding of Instagram's hashtag system and algorithms.
+Experience with Rule-Based Systems: Since I am specifically interested in using rule-based systems for this project, a solid understanding and experience in creating and implementing these types of algorithms is crucial. I want to ensure that the program can follow a set of defined rules to identify potential customers and send messages.
+This project has the potential to significantly increase my brand's visibility on Instagram, so I am looking for a freelancer who is capable of delivering a high-quality program that meets these requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Dropshipping Website with Market Analytics &amp; Ad Scraping</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>£750-1500 GBP</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>67 proposals</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Hull,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>I'm seeking a skilled web developer to build a dropshipping website akin to Minea. This site should not only facilitate sales but primarily serve as a robust platform for market research and analytics. Key features must include:
+- Ad Scraping: The site should have the capability to scrape advertisements from major platforms including Facebook, Instagram, and TikTok. 
+- Product Discovery: There should be an automated recommendation system for product discovery, drawing from sources like AliExpress. 
+- User Dashboard: A comprehensive user dashboard that tracks and visualizes market trends and insights. 
+- Secure Login: Implement a secure login system using JWT/OAuth2 protocols. 
+- Subscription Model: The website should operate on a subscription basis, providing different tiers of access and data. 
+- Responsive Front-End: The front-end should be built using React.js, ensuring a seamless experience across all devices.
+The ideal candidate would have a strong background in web development, specifically in creating ecommerce and analytic platforms. Proficiency in React.js is a must, along with experience in implementing secure login systems and subscription models. Familiarity with ad scraping and product discovery systems will be a significant advantage. 
+Please provide examples of similar projects you have completed in your proposal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Business-Centric Hotel Plans Needed</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>$1500-3000 USD</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>44 proposals</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Baldwin Park,  United States</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>I'm looking for a professional License architect &amp; engineer in the state of California, to draft plans for a new hotel.
+Candidates  must provee previous work in similar project.   Must Familiar with IBC, California Building Code, NFPA, NEC and any other local code. 
+This project is located in California USA. 
+Building type; Hospitality ( Hotel)
+Location; Anderson California. 
+Franchise;  Staybridge By IHG and a Homewood Suites. In same lot. 
+CAD files for Prototype will be provide, so this work shall be follow by the prototype. 
+1st Phase Plot Plan. 
+2nd Phase Architecture Plan &amp; Civil Plan, Landscape Plan, Structural. 
+3rd Phase MEP
+4th phase Fire Safety. 
+Candidate must to make as many revisions need it in order to get the plans approved by the city. 
+In addition to this all changes  it made to the original plans, will be pay separate.  So follow up after approve plans  must be need it. 
+Please don’t send any messages if you don’t have previous experience. Or you disagree with the terms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Stunning Android E-commerce Mobile App - 12/09/2024 11:06 EDT</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>$15-25 USD / hour</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>36 proposals</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Pasuruan,  Indonesia</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>I'm in need of a top-notch Android developer to help me create a beautiful and user-friendly E-commerce mobile app. 
+Key Requirements:
+- Proficient in Android app development.
+- Previous experience in building E-commerce mobile apps is a plus.
+- Strong skills in Graphic Design to ensure the app is visually appealing.
+Your main tasks will include designing the app, ensuring smooth functionality and implementing necessary features for an E-commerce platform. Creativity and attention to detail are essential for this project.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Consumer Electronics Product Design Expert</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>₹100-400 INR / hour</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4 proposals</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>chandigarh,  India</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>I'm looking for a talented mechanical engineer who specializes in product design, specifically for the consumer electronics industry. Your role will be pivotal in bringing innovative and functional designs to life. 
+Ideal Skills and Experience:</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>E-commerce Android App Development</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>$25-50 USD / hour</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>28 proposals</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Gresik,  Indonesia</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>I'm looking for a talented mobile app developer to help me create an Android-based e-commerce application. 
+Key Responsibilities:
+- Designing and developing a seamless, user-friendly e-commerce app for Android.
+- Integrating secure payment gateways and smooth checkout processes.
+- Implementing effective product search and filter options.
+Ideal Skills:
+- Proven experience in mobile app development, specifically for Android.
+- Strong portfolio of e-commerce applications.
+- Proficient in implementing secure payment systems.
+Your role will be pivotal in bringing this project to fruition. Looking forward to your bids.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Unity Developer Needed for Evaluation Period with Potential Long-Term Opportunity</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>$10-11 USD / hour</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>8 proposals</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NOIDA,  India</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>We are seeking a skilled and experienced Unity Developer for a temporary evaluation period, with the potential for a long-term engagement. This role is open to new candidates who have not previously worked with us, as we are looking for fresh talent to join our team. The initial period will be paid and serve as an assessment of communication skills, technical expertise, and overall performance.
+Requirements:
+Proven experience with Unity development (please specify number of years in your application).
+Strong understanding of Unity tools and development workflow.
+Preferred Skills:
+Experience with game development, AR/VR projects,</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Monthly Financial Reporting &amp; Bookkeeping</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>$8-15 USD / hour</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>28 proposals</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Pompano Beach,  United States</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>I'm looking for a professional with extensive experience in bookkeeping and financial reporting who can assist me on a monthly basis.
+Key Responsibilities:
+- Prepare and present the Income Statement, Balance Sheet, and Cash Flow Statement using Business Central.
 Ideal Skills and Experience:
-- Proven experience in web development, specifically in creating directory websites.
-- Strong understanding of user interface design and user experience.
-- Ability to incorporate review and rating systems.
-- Proficiency in managing multimedia content within profiles.</t>
+- Proven experience in bookkeeping and financial reporting.
+- Proficient in using Business Central.
+- Strong understanding of accounting principles.
+- Excellent attention to detail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Animator for 1-Minute Educational Tech Videos (Instagram, TikTok, YouTube)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>$30-250 USD</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>34 proposals</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>I am looking for a skilled animator to create engaging and informative 1-minute animations for a social media series aimed at educating young Nigerians about cloud computing and tech careers, with a focus on AWS (Amazon Web Services). The animations will be used on Instagram, TikTok, and YouTube.
+Each video will combine technical illustrations, basic diagrams, and animation effects with a voiceover. The voiceover will explain concepts, and the animations will visually support the content being discussed.
+Project Overview:
+We are creating a series to help introduce and explain cloud computing in simple terms. The series starts by explaining traditional on-premise architectures and gradually transitions into cloud computing concepts. Each episode will be 1-minute long, and we’ll focus on making these short clips visually engaging for social media.
+Example of First Video: "On-Premise Architecture"
+In the first episode, we will explain what on-premise architecture is and how it worked before the rise of cloud computing. The animation should include:
+•⁠  ⁠Illustrations of a physical office/data center: Show a big room with racks of servers.
+•⁠  ⁠Representation of servers: A close-up or simplified diagram of how servers look and store data.
+•⁠  ⁠Challenges of on-prem architecture: Illustrations that represent challenges like high costs, limited scalability, and maintenance (e.g., a server with a price tag, growing storage problems, and IT staff fixing servers).
+This first animation will be used as the foundation for the rest of the series, so it’s important to set the tone and visual style.
+What I’m Looking For:
+•⁠  ⁠Experience: Previous experience creating educational or explainer videos, especially on tech-related topics.
+•⁠  ⁠Platform Knowledge: Familiarity with the types of animations that perform well on Instagram, TikTok, and YouTube (especially short-form, engaging content).
+•⁠  ⁠Style: Ability to create clean, simple, and professional animations that appeal to a young audience. We want something that feels modern, fun, and informative.
+•⁠  ⁠Communication: You should be comfortable collaborating on visual ideas and iterating based on feedback.
+Requirements:
+•⁠  ⁠1-minute animations for each episode (ongoing series).
+•⁠  ⁠Illustrations that match the educational content being voiced over.
+•⁠  ⁠Must be delivered in formats suitable for Instagram, TikTok, and YouTube.
+•⁠  ⁠Open to creating templates or reusable assets for future videos (optional but a plus).
+Deliverables:
+•⁠  ⁠Animations in .mp4 format optimized for social media platforms.
+•⁠  ⁠Files in various resolutions: 1080x1080 (Instagram), 1080x1920 (TikTok), and 1920x1080 (YouTube).
+•⁠  ⁠A consistent visual style across all episodes.
+Budget: Please provide your rate per 1-minute animation. I am looking for a long-term collaboration, as this will be an ongoing series with weekly or bi-weekly episodes.
+To Apply:
+•⁠  ⁠Please provide examples of your previous animation work, especially educational or tech-related content.
+•⁠  ⁠Include your availability and estimated turnaround time for a 1-minute video.
+Looking forward to working with a creative professional who can bring these tech concepts to life in an engaging way!</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Appeals Brief Proofreading &amp; Compliance Review</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$30-250 USD</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>34 proposals</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Nashville,  United States</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>I need a meticulous proofreader to examine my 55-page brief for adherence to court filing requirements and Rule 27. The brief is already written and primarily formatted, but it needs a thorough check for format and structure compliance. There are 5 arguments remaining to be reviewed. 
+Key Tasks:
+- Proofread the document for compliance with court's filing requirements
+- Ensure the document adheres to Rule 27
+- General proofreading
+Ideal Skills:
+- Strong legal background
+- Prior experience with court documents
+- Excellent attention to detail</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2D and 3D Room Rendering from DWG</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>£5-10 GBP / hour</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>33 proposals</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>HARROGATE,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>I'm looking for a skilled professional who can create detailed 2D and 3D product renders from provided DWG files, as well as then creating renders of various rooms in different styles of houses. The rooms include living rooms, dining rooms, and bedrooms, library room, etc.
+Key Requirements:
+- Ability to transform dwg files into 2d and 3d product renders.
+- Ability to place these renders into a variety of room styles, primarily modern and traditional.
+- For the living rooms, a broader range of styles will be needed.
+Ideal Candidates:
+- Proficient in using design software compatible with DWG files.
+- Experience in creating detailed and high-quality 2D and 3D renders.
+- A strong portfolio showcasing a variety of room styles.
+- Ability to meet deadlines and deliver quality work. 
+This is a great opportunity for freelancers with a passion for interior design and a keen eye for detail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Hotel Booking Website Development</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>$10-30 USD</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>46 proposals</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Egg Harbor Township,  United States</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>I'm looking for a freelancer to create a bright and colorful hotel booking website on WordPress or any other platform. This site must have low maintenance costs and be easy for me to edit. Key features must include:
+- Payment Processing: The site should support Credit/Debit Cards, PayPal, and Bank Transfers.
+- Chat Option: A customer support chat feature is crucial.
+- SEO: The site needs to be SEO friendly to attract more visitors.
+- Additional Lead Matrices: Any other features that could help generate more revenue are welcome.
+I'll provide the domain, hosting, and pictures. The ideal candidate for this job should have extensive experience with WordPress, eCommerce, and SEO. A knack for creating bright and colorful designs will be a plus. Please include examples of similar projects you've completed in your bid.
+The max budget for this project is $50. There will be no further negotiations. IF you are unable to complete the entire project within the given budget then do not bid or remove your bid. Post "HOTEL" in your proposal so I know you have read Project description, or else I will not message you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>haynunmanurung20</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>$15-25 USD / hour</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>48 proposals</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Manado,  Indonesia</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>I'm looking to develop a social networking website named 'mahasiswa24'. This platform is aimed primarily at students, enabling them to connect, share, and communicate with one another. 
+Core Features:
+- User Profiles: The website should allow users to create and customize their own profiles. These profiles will display their interests, studies, and activities.
+Skills and Experience Needed:
+- Web Development: A strong background in web development is crucial for this project.
+- Social Networking Site Experience: Prior experience in developing social networking sites will be a significant advantage.
+- UI/UX Design: The ideal candidate should also have skills in UI/UX design to create an intuitive and engaging platform for users.a</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Welcome back</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Looks like the page you are looking for doesn't exist.</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Perhaps you were trying to do this?</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>City-Specific Professional Services Listings</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>₹12500-37500 INR</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>16 proposals</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Delhi,  India</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Pls check site: [login to view URL]
+Point 1) Site has woocommerce e.g. on URL [login to view URL]
+if i apply a filter, new URL created is with a ?  i.e. param
+[login to view URL]
+Requirement: Static URLs should be created on applying filter 
+e.g. [login to view URL]
+Point 2) See current page :  [login to view URL]
+These are article pages with Level 2 menu where all Paint related pages can be linked by admin.
+Requirement
+2a) Ability for admin to add listings with attributes Name, Address, Lat, long, Google maps URL, Phone, Rating, Review count, City, Subcity, Category, Sub Category, Type ( Dealer, Contractor), Active/ inactive
+2b) Listing pages creation: Create a page "Paint shops in Noida" e.g. [login to view URL] automatically from listing data and map this page to a Category ( e.g. Paint) &amp; City ( e.g. Noida). 
+2c) When a visitor comes, detect his IP and hence city and when he lands on any Category page e.g.  [login to view URL]        show him above page [login to view URL]   in  Level 2 menu tab
+So, for a user from Noida when he goes to any page of "Paint" category he will see article pages ( which is already happening currently) and also see page  "Paint shops in Noida"
+Point 3) Requirement
+ 3a) To view a number on the listing page, visitors will have to login using phone number &amp; OTP.  
+ 3b) Limit on number of phone which can be viewed - 4 per day per mobile number, 4 per day per IP, 15 per month per mobile number,  15 per month per IP
+ 3c) When visitor views phone number of listing, Save visitor phone number, Name, City of listing, Category of lising &amp; date in a table</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Looks like the page you are looking for doesn't exist.</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Perhaps you were trying to do this?</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Amazon Women's Formal Clothing Description Writer</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>$10-30 USD</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>10 proposals</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Karachi,  Pakistan</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>I'm looking for a skilled content writer who can craft engaging and compelling product descriptions for a line of women's formal clothing that I'm selling on Amazon.
+Key Requirements:
+- Proven experience in writing product descriptions, especially for Amazon.
+- Exceptional writing, editing, and proofreading skills.
+- Ability to understand and target specific audiences.
+- Previous experience with clothing product descriptions is a plus.
+- Knowledge of SEO and Amazon's algorithm is desirable.
+Your task will be to highlight the unique features and quality of the clothing, while appealing to the target audience of women looking for formal attire. The descriptions need to be both informative and persuasive, driving potential customers to make a purchase.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Website Development -- 3</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>$25-30 USD / hour</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>104 proposals</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Le Bardo,  Tunisia</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>looking for a skilled web developer to create a website like this one: [login to view URL]
+Skills Requirements:
+- Proficient in WordPress and WooCommerce
+- Strong understanding of Classic and Elegant design principles
+- Experience in developing e-commerce sites with product filtering, and wish list features.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Social Media Multilingual Translator Needed</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>$250-750 USD</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>6 proposals</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Poltava,  Ukraine</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>I'm looking for a quality translator who can translate my Instagram texts into various languages. The main goal of these translations is to promote my products or services. 
+Skills and experience required:
+- Proficient in Spanish, French, English, Arabic, Italian, Polish
+- Experience in marketing translations
+- Understanding of social media and its language
+- Able to deliver high-quality translations consistently
+- Long-term commitment is needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>YouTube Gaming Video Editor</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>$30-250 USD</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>37 proposals</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Maricopa,  United States</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>I'm in need of a skilled video editor with experience in gaming content. The video will be uploaded to my YouTube channel, so familiarity with YouTube's style and audience is a plus.
+Key Responsibilities:
+- Edit raw gameplay footage into engaging content
+- Create visually appealing montages with sound effects and music
+- Ensure the final product is optimized for YouTube
+Ideal Skills:
+- Proficiency in video editing software
+- Experience with gaming content
+- Creative mindset with a good understanding of pacing, music, and visuals
+Please provide examples of previous gaming videos you have edited.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>YouTube Video Editing Expert Needed</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5 proposals</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Indore,  India</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>I'm seeking a talented video editor to enhance my YouTube content. Your primary responsibilities will include:
+- Adding effects and transitions to create engaging and professional-quality videos.
+Ideal skills and experience include:
+- Proficiency in video editing software (like Adobe Premiere Pro, Final Cut Pro, etc.)
+- Prior experience editing YouTube content.
+- Understanding of what makes a video entertaining and engaging for viewers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Wikipedia Page Creation for Ahmad Haffar -- 3</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>$250-750 USD</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>23 proposals</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Dubai,  United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>I'm seeking a skilled professional to create a comprehensive Wikipedia page for Ahmad Haffar. The page should thoroughly cover Haffar's professional career, personal life, and contributions to the community. 
+Key Requirements:
+- Full research: The freelancer will need to find all sources, both primary and secondary, to support the content. This includes news articles, books, interviews, and personal documents.
+- Writing: The freelancer should be able to write in a neutral, encyclopedic tone that adheres to Wikipedia's guidelines.
+- Publishing: The final task will be to publish the page on Wikipedia.
+Ideal Skills and Experience:
+- Proven experience in Wikipedia page creation and understanding of its guidelines.
+- Exceptional research and writing skills.
+- Ability to write in a neutral, encyclopedic tone.
+- Prior experience with both primary and secondary source research.
+- Familiarity with the Wikipedia publishing process. 
+I am looking for a freelancer who is not only capable of meeting these requirements but who can also present Haffar's life and achievements in a captivating manner.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Welcome back</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Business Website Designer</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>₹100-400 INR / hour</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>17 proposals</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Hisar,  India</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>I'm looking for a talented web designer to create a professional and engaging business site for me. The primary goal of this website will be to showcase my products and services.
+Key Features:
+- A contact form to enable potential customers to reach out
+Ideal Skills:
+- Proven experience in designing business websites
+- E-commerce knowledge would be a plus
+- Excellent understanding of user-friendly design principles
+- Proficient in creating responsive designs
+- Knowledge of SEO best practices
+Please include examples of your previous work with your bid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Algolia Search Integration Enhancement</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>€30-250 EUR</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>11 proposals</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>MILTON KEYNES,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>I'm looking for an expert to help refine and finish the Algolia Search integration with our platform. The platform is connected, but the search result accuracy and training models need improvements. 
+Key Responsibilities:
+- Improve the accuracy of search results
+- Train models using user data
+- Utilize user-generated content for model training
+Ideal Skills:
+- Proficiency in Algolia Search
+- Experience in search optimization
+- Skills in data analysis and model training
+Please note, the goal is to enhance the search experience on our platform.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>DGII Facturacion Electronica odoo Republica Dominicana</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>€750-1500 EUR</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>33 proposals</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Aviles,  Spain</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Necesito hacer un módulo para Odoo 14 o superior para integrar con la Facturación Electrónica de República Dominicana.
+Esta es la documentación:
+[login to view URL]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SAAS Product Website UI Design</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>$8-15 USD / hour</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>76 proposals</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Sharjah,  United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I'm looking for a talented UI designer to create a user interface for my e-commerce website. The design should be intuitive, attractive, and conducive to driving sales.
+Key Requirements:
+- Design for the Homepage and Product pages
+- Expertise in Website UI design
+- Prior experience in designing SAAS Product site UIs
+- Understanding of user-centric design principles
+- Proficiency in design tools like Sketch, Figma, or Adobe XD
+Your design should enhance user experience, promote easy navigation and ultimately lead to increased conversions. Please provide a portfolio of your previous work in SAAS UI design.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>YouTube Video Editing Needed</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>₹600-1000 INR</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>4 proposals</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Delhi,  India</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I am looking for a skilled video editor to help edit my YouTube videos. The editing style should be simple and clean, without too many distractions or unnecessary cuts.
+Key Responsibilities:
+- Edit video footage into a coherent and engaging final product
+- Incorporate background music at appropriate parts of the video
+- Use transitions to smoothly segue between different segments of the video
+Ideal Skills:
+- Proficiency in video editing software
+- Previous experience editing YouTube content
+- Ability to adhere to a specific editing style
+- Strong understanding of pacing and timing in video editing
+- Creative approach to utilizing music and transitions 
+I am open to seeing examples of previous work and discussing how you can help enhance the quality of my channel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Admin Support</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>£2-5 GBP / hour</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>41 proposals</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Barnet,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I'm in need of an efficient, dedicated professional to assist with various administrative tasks, primarily focusing on customer support via email. 
+Ideal Candidates Should Have:
+- Strong email communication skills, with an ability to handle, respond and manage customer queries professionally and promptly.
+- Experience in data entry, email management, and scheduling appointments.
+- Prior experience in customer support, specifically email support.
+- A proactive approach towards office management tasks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Food Vlog &amp; Hotel Navigator App</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>8 proposals</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Chennai,  India</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I'm looking for a skilled UI/UX designer to help create a mobile application. The app should allow users to view food vlog videos, search for hotels and navigate through a map.
+Key features include:
+- Comprehensive hotel details including timing, address, phone, rating, signature dishes, and prices.
+- Advanced navigation features such as turn-by-turn directions and route optimization.
+- User-friendly interface that seamlessly integrates video viewing, hotel searching, and map navigation.
+Freelancers with experience in designing for mobile applications, particularly in the travel and food sectors, will be preferred. A keen understanding of UI/UX principles and a knack for creating engaging and intuitive designs is essential. Please include examples of relevant past work in your proposal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Custom-Built E-commerce Website Development</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>$1500-3000 CAD</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>124 proposals</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Ottawa,  Canada</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>I'm seeking a skilled web developer to create a comprehensive, custom-built E-commerce site for me.
+Essential Features:
+- Shopping Cart: Users should be able to shop and add items to their cart seamlessly.
+- SEO-Friendly: The site needs to be optimized for search engines to enhance visibility.
+- User Accounts: Implementation of account creation and management is crucial.
+- Inventory Management: The website should have a robust system for managing inventory.
+- Security: The site must have SSL Certification, a secure payment gateway, and data encryption to ensure safety and security.
+- CMS: I need an easy-to-use CMS that allows me to add/update products effortlessly.
+Control:
+I want full control over all updates and changes to the website, not just the content.
+Ideal Skills:
+- Expertise in custom website development.
+- Proficient in building E-commerce platforms.
+- Comprehensive knowledge of SEO strategies.
+- Experience with implementing robust security features.
+- Skilled in developing user-friendly CMS.
+I'm looking for a professional who can deliver a high-quality, secure, and easy-to-manage website. Please include your portfolio of similar projects in your proposal.
+Budget: I am open to discussing rates based on the scope of the work and developer expertise.
+Additional Information:
+I am happy to collaborate on ideas and provide detailed feedback during the development process.
+Future work is possible, as I may need ongoing support for updates and maintenance.
+for the colors of the website i am looking for something warm/ vintage but elegant. I have attached a photo for color reference.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Photo Editing</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>$10-30 USD</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>56 proposals</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I have about 57 images where I need a soft blue sky added and the people in the back less faded and an overall cleaner look</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>HVAC Systems Maintenance Expert Needed</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>$250-750 USD</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>15 proposals</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Riyadh,  Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I am seeking a skilled mechanical technician with expertise in HVAC systems. The primary focus will be on routine maintenance, with a specific emphasis on the inverter and condenser components. Ideal candidates should have a strong background in HVAC systems, with prior experience in both servicing and maintaining these systems. 
+Key Responsibilities:
+- Conduct regular maintenance on the HVAC system
+- Inspect and service the inverter and condenser
+- Identify and fix any potential issues before they become serious problems 
+Skills and Experience Required:
+- Proven experience with HVAC systems
+- Strong mechanical skills
+- Previous work as a mechanical technician highly desirable
+- Ability to work independently and efficiently</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Django Developer for UI Enhancement</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>$1500-3000 USD</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>110 proposals</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Atlanta,  United States</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I need a seasoned Python developer with extensive experience in the Django framework. The project involves enhancing an existing web application, specifically focusing on the user interface.
+Key Requirements:
+- Improve User Experience Flow: The primary goal is to make the web application more intuitive and user-friendly. You will need to analyze the current user interface and implement changes that enhance the overall user experience.
+Ideal Skills:
+- Python
+- Django
+- UI/UX Design
+- Web Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Cyprus Company Registration &amp; Bank Account Help</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>$250-750 USD</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>12 proposals</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Jerusalem,  Israel</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I'm looking for assistance in opening a bank account in Cyprus and setting up a company there. 
+Skills and Experience Ideal for this Job:
+- Knowledge and experience in company registration in Cyprus.
+- Familiarity with Cyprus bank account opening procedures.
+- Legal expertise for handling formalities (if necessary).
+- Understanding of different types of companies in Cyprus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Looks like the page you are looking for doesn't exist.</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Perhaps you were trying to do this?</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Adventure-Filled Children's Book Writer</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>£250-750 GBP</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>38 proposals</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>London,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I'm seeking a skilled children's book writer to craft a playful and humorous adventure story for ages 2 to 5. 
+Key Requirements:
+- Experience in writing children's literature, particularly for the 2-5 age group.
+- Ability to weave a captivating adventure narrative.
+- Proficiency in creating playful and humorous text.
+- Understanding of the language and themes suitable for young children.
+Ideal Skills:
+- Creativity and originality in story-telling.
+- Excellent command of simple, clear, and engaging language.
+- Understanding of rhythm, rhyme, and repetition in children's writing.
+- Experience with children's book publishing process is a plus. 
+Your work will play a significant role in sparking adventure and laughter in the hearts of our little readers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Website Development</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>30 proposals</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>KARELI,  India</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>I'm looking for an experienced web developer. The site should be user-friendly, smooth and capable of hosting a variety of content. Key responsibilities include:
+- Developing a responsive, SEO-optimized WordPress site
+- Implementing a clean, modern design
+- Ensuring robustness for potential high traffic
+- Providing training on basic site management
+Ideal skills for this project include a strong background in web development, specifically with WordPress, and experience in creating similar types of sites. A good understanding of SEO and responsive design is crucial. Please include examples of your previous WordPress projects in your bid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Website Development</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>$25-30 USD / hour</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>84 proposals</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Le Bardo,  Tunisia</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>looking for a skilled web developer to create a website like this one: [login to view URL]
+Skills Requirements:
+- Proficient in WordPress and WooCommerce
+- Strong understanding of Classic and Elegant design principles
+- Experience in developing e-commerce sites with product filtering, and wish list features.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>AppMetrica Analytics Setup for Tracking analytics</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>$10-30 USD</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>4 proposals</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>New Delhi,  India</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>I need a skilled developer with expertise in AppMetrica to set up new analytics for my utility app on both iOS and Android platforms. 
+Key Requirements:
+- Expertise in AppMetrica
+- Experience with both iOS and Android
+- Understanding of utility app metrics
+- Skills in setting up new analytics
+Your bid should reflect your past experience with similar projects, particularly with AppMetrica and utility apps.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Instagram Customer Acquisition Automation</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>€750-1500 EUR</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>32 proposals</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Mülheim,  Germany</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>I need a programmer to develop an application that leverages algorithms to identify potential new customers on Instagram and automatically send them promotional messages. The aim is to enhance my visibility and reach on this platform.
+Key Components:
+- Customer Identification: The program should be able to find prospective customers using hashtags and algorithms. It should be able to sift through Instagram's vast user base to pinpoint individuals who could be interested in my products or services.
+- Message Automation: Once potential customers are identified, the program should automatically send them promotional offers. The messages should be sent in a way that appears organic and not spammy, to avoid being flagged by Instagram's spam filters.
+Desired Skills:
+- Proficiency in programming and algorithm development.
+- Experience with social media automation tools, particularly Instagram.
+- Understanding of Instagram's hashtag system and algorithms.
+Experience with Rule-Based Systems: Since I am specifically interested in using rule-based systems for this project, a solid understanding and experience in creating and implementing these types of algorithms is crucial. I want to ensure that the program can follow a set of defined rules to identify potential customers and send messages.
+This project has the potential to significantly increase my brand's visibility on Instagram, so I am looking for a freelancer who is capable of delivering a high-quality program that meets these requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Dropshipping Website with Market Analytics &amp; Ad Scraping</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>£750-1500 GBP</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>114 proposals</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Hull,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I'm seeking a skilled web developer to build a dropshipping website akin to Minea. This site should not only facilitate sales but primarily serve as a robust platform for market research and analytics. Key features must include:
+- Ad Scraping: The site should have the capability to scrape advertisements from major platforms including Facebook, Instagram, and TikTok. 
+- Product Discovery: There should be an automated recommendation system for product discovery, drawing from sources like AliExpress. 
+- User Dashboard: A comprehensive user dashboard that tracks and visualizes market trends and insights. 
+- Secure Login: Implement a secure login system using JWT/OAuth2 protocols. 
+- Subscription Model: The website should operate on a subscription basis, providing different tiers of access and data. 
+- Responsive Front-End: The front-end should be built using React.js, ensuring a seamless experience across all devices.
+The ideal candidate would have a strong background in web development, specifically in creating ecommerce and analytic platforms. Proficiency in React.js is a must, along with experience in implementing secure login systems and subscription models. Familiarity with ad scraping and product discovery systems will be a significant advantage. 
+Please provide examples of similar projects you have completed in your proposal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Business-Centric Hotel Plans Needed</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>$1500-3000 USD</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>45 proposals</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Baldwin Park,  United States</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I'm looking for a professional License architect &amp; engineer in the state of California, to draft plans for a new hotel.
+Candidates  must provee previous work in similar project.   Must Familiar with IBC, California Building Code, NFPA, NEC and any other local code. 
+This project is located in California USA. 
+Building type; Hospitality ( Hotel)
+Location; Anderson California. 
+Franchise;  Staybridge By IHG and a Homewood Suites. In same lot. 
+CAD files for Prototype will be provide, so this work shall be follow by the prototype. 
+1st Phase Plot Plan. 
+2nd Phase Architecture Plan &amp; Civil Plan, Landscape Plan, Structural. 
+3rd Phase MEP
+4th phase Fire Safety. 
+Candidate must to make as many revisions need it in order to get the plans approved by the city. 
+In addition to this all changes  it made to the original plans, will be pay separate.  So follow up after approve plans  must be need it. 
+Please don’t send any messages if you don’t have previous experience. Or you disagree with the terms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Stunning Android E-commerce Mobile App - 12/09/2024 11:06 EDT</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>$15-25 USD / hour</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>43 proposals</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Pasuruan,  Indonesia</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I'm in need of a top-notch Android developer to help me create a beautiful and user-friendly E-commerce mobile app. 
+Key Requirements:
+- Proficient in Android app development.
+- Previous experience in building E-commerce mobile apps is a plus.
+- Strong skills in Graphic Design to ensure the app is visually appealing.
+Your main tasks will include designing the app, ensuring smooth functionality and implementing necessary features for an E-commerce platform. Creativity and attention to detail are essential for this project.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Consumer Electronics Product Design Expert</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>₹100-400 INR / hour</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>4 proposals</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>chandigarh,  India</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I'm looking for a talented mechanical engineer who specializes in product design, specifically for the consumer electronics industry. Your role will be pivotal in bringing innovative and functional designs to life. 
+Ideal Skills and Experience:</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>E-commerce Android App Development</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>$25-50 USD / hour</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>33 proposals</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Gresik,  Indonesia</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>I'm looking for a talented mobile app developer to help me create an Android-based e-commerce application. 
+Key Responsibilities:
+- Designing and developing a seamless, user-friendly e-commerce app for Android.
+- Integrating secure payment gateways and smooth checkout processes.
+- Implementing effective product search and filter options.
+Ideal Skills:
+- Proven experience in mobile app development, specifically for Android.
+- Strong portfolio of e-commerce applications.
+- Proficient in implementing secure payment systems.
+Your role will be pivotal in bringing this project to fruition. Looking forward to your bids.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Unity Developer Needed for Evaluation Period with Potential Long-Term Opportunity</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>$10-11 USD / hour</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>9 proposals</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>NOIDA,  India</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>We are seeking a skilled and experienced Unity Developer for a temporary evaluation period, with the potential for a long-term engagement. This role is open to new candidates who have not previously worked with us, as we are looking for fresh talent to join our team. The initial period will be paid and serve as an assessment of communication skills, technical expertise, and overall performance.
+Requirements:
+Proven experience with Unity development (please specify number of years in your application).
+Strong understanding of Unity tools and development workflow.
+Preferred Skills:
+Experience with game development, AR/VR projects,</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Monthly Financial Reporting &amp; Bookkeeping</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>$8-15 USD / hour</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>28 proposals</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Pompano Beach,  United States</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>I'm looking for a professional with extensive experience in bookkeeping and financial reporting who can assist me on a monthly basis.
+Key Responsibilities:
+- Prepare and present the Income Statement, Balance Sheet, and Cash Flow Statement using Business Central.
+Ideal Skills and Experience:
+- Proven experience in bookkeeping and financial reporting.
+- Proficient in using Business Central.
+- Strong understanding of accounting principles.
+- Excellent attention to detail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Animator for 1-Minute Educational Tech Videos (Instagram, TikTok, YouTube)</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>$30-250 USD</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>35 proposals</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>I am looking for a skilled animator to create engaging and informative 1-minute animations for a social media series aimed at educating young Nigerians about cloud computing and tech careers, with a focus on AWS (Amazon Web Services). The animations will be used on Instagram, TikTok, and YouTube.
+Each video will combine technical illustrations, basic diagrams, and animation effects with a voiceover. The voiceover will explain concepts, and the animations will visually support the content being discussed.
+Project Overview:
+We are creating a series to help introduce and explain cloud computing in simple terms. The series starts by explaining traditional on-premise architectures and gradually transitions into cloud computing concepts. Each episode will be 1-minute long, and we’ll focus on making these short clips visually engaging for social media.
+Example of First Video: "On-Premise Architecture"
+In the first episode, we will explain what on-premise architecture is and how it worked before the rise of cloud computing. The animation should include:
+•⁠  ⁠Illustrations of a physical office/data center: Show a big room with racks of servers.
+•⁠  ⁠Representation of servers: A close-up or simplified diagram of how servers look and store data.
+•⁠  ⁠Challenges of on-prem architecture: Illustrations that represent challenges like high costs, limited scalability, and maintenance (e.g., a server with a price tag, growing storage problems, and IT staff fixing servers).
+This first animation will be used as the foundation for the rest of the series, so it’s important to set the tone and visual style.
+What I’m Looking For:
+•⁠  ⁠Experience: Previous experience creating educational or explainer videos, especially on tech-related topics.
+•⁠  ⁠Platform Knowledge: Familiarity with the types of animations that perform well on Instagram, TikTok, and YouTube (especially short-form, engaging content).
+•⁠  ⁠Style: Ability to create clean, simple, and professional animations that appeal to a young audience. We want something that feels modern, fun, and informative.
+•⁠  ⁠Communication: You should be comfortable collaborating on visual ideas and iterating based on feedback.
+Requirements:
+•⁠  ⁠1-minute animations for each episode (ongoing series).
+•⁠  ⁠Illustrations that match the educational content being voiced over.
+•⁠  ⁠Must be delivered in formats suitable for Instagram, TikTok, and YouTube.
+•⁠  ⁠Open to creating templates or reusable assets for future videos (optional but a plus).
+Deliverables:
+•⁠  ⁠Animations in .mp4 format optimized for social media platforms.
+•⁠  ⁠Files in various resolutions: 1080x1080 (Instagram), 1080x1920 (TikTok), and 1920x1080 (YouTube).
+•⁠  ⁠A consistent visual style across all episodes.
+Budget: Please provide your rate per 1-minute animation. I am looking for a long-term collaboration, as this will be an ongoing series with weekly or bi-weekly episodes.
+To Apply:
+•⁠  ⁠Please provide examples of your previous animation work, especially educational or tech-related content.
+•⁠  ⁠Include your availability and estimated turnaround time for a 1-minute video.
+Looking forward to working with a creative professional who can bring these tech concepts to life in an engaging way!</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Appeals Brief Proofreading &amp; Compliance Review</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>$30-250 USD</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>34 proposals</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Nashville,  United States</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>I need a meticulous proofreader to examine my 55-page brief for adherence to court filing requirements and Rule 27. The brief is already written and primarily formatted, but it needs a thorough check for format and structure compliance. There are 5 arguments remaining to be reviewed. 
+Key Tasks:
+- Proofread the document for compliance with court's filing requirements
+- Ensure the document adheres to Rule 27
+- General proofreading
+Ideal Skills:
+- Strong legal background
+- Prior experience with court documents
+- Excellent attention to detail</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Full-Time Expert WordPress Developer Needed (Payment monthly Basis)</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>15 proposals</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Jaipur,  India</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>I am looking for a WordPress Developer. understand front end back end, Elementor, Divi Theme, Bridge Theme, Astra Theme, Woo-Commerce, Payment getaway.
+long term working
+Payment monthly basis</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Modern Board Game Designer</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>₹2000-3000 INR</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>7 proposals</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>India,  India</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>I'm seeking a talented graphic designer with a flair for modern aesthetics to help design the traditional game designs for my board game. The board will need to incorporate illustrations or icons in a sleek and contemporary style. 
+Ideal Skills and Experience:
+- Proficiency in graphic design software
+- Experience designing for board games
+- Strong understanding of modern design principles
+- Creative ability to conceptualize and create unique illustrations or icons
+- Excellent communication and collaboration skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Global Conflict Research Expert Needed</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>$15-25 USD / hour</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>18 proposals</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Las Vegas,  United States</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>I'm seeking a proficient internet r
+I have about 10 issues I need researched dealing with global conflicts...about an hour to two hours for each issue.....after that additional simple research....such as the address of every town council member in town X...
+Ideal Skills:
+- Extensive experience in internet research
+- Strong understanding of global political landscape
+- Ability to distill complex information into clear, concise reports
+Your work will aid in understanding the landscape of international disputes and the potential implications on a global scale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>C# WinForms App for CUDA &amp; Python Check ($5/hour)</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>$2-8 USD / hour</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>11 proposals</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Warsaw,  Poland</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>I'm in need of a C# 4.7.2 WinForms based GUI application. This app is intended to check my CUDA and Python environment for machine learning and deep learning readiness. The application should also run basic tests for these fields.
+Features:
+- Check for CUDA and Python compatibility and readiness
+- Conduct basic machine learning and deep learning tests
+- Display error messages when issues are detected
+The application does not need to generate any reports, but it should be able to clearly display error messages when it detects an issue in the environment. 
+Ideal skills for this project:
+- Proficiency in C# and WinForms
+- Familiarity with CUDA and Python
+- Understanding of machine learning and deep learning concepts
+- Ability to create user-friendly GUI applications</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Comprehensive Social Media Management  -- 8</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>$2-8 USD / hour</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>27 proposals</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Lusaka,  Zambia</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>I am seeking a skilled social media professional to enhance my business's presence on Facebook and LinkedIn. The project's main components include:
+- Content Creation: I need engaging, high-quality content tailored to my target audience on both platforms. 
+- Account Management: This includes regular updates, interaction with followers, and maintaining a positive online presence. 
+- Advertising Campaigns: Design and implement effective advertising campaigns to increase visibility and engagement.
+Ideal candidates should have a proven track record in social media management, particularly on Facebook and LinkedIn, with strong content creation skills. Experience in running successful advertising campaigns is also a must. Understanding of audience engagement and brand building will be highly beneficial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>SEO for hzpt.com</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>$30-250 SGD</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>44 proposals</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Singapore,  Singapore</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Job Title: SEO Specialist for [login to view URL]
+Description:
+We are looking for an experienced SEO specialist to improve the search engine ranking and overall visibility of our website hzpt.com. The ideal candidate should be well-versed in both on-page and off-page SEO techniques, keyword research, link-building strategies, and performance tracking.
+Responsibilities:
+Conduct comprehensive SEO audits for [login to view URL] to identify areas for improvement.
+Optimize on-page elements such as meta tags, headings, images, and content for SEO performance.
+Build quality backlinks and develop a robust off-page SEO strategy.
+Perform keyword research to identify high-potential keywords, including long-tail keywords.
+Develop and implement content strategies to enhance organic traffic and ranking.
+Analyze website analytics data to assess performance and refine strategies as needed.
+Work on Google indexing issues and optimize for Google Search Console performance.
+Monitor and report on SEO performance, including rankings, traffic, and conversions.
+Collaborate with our web development and marketing teams to ensure SEO best practices are implemented.
+Requirements:
+Proven experience in SEO with a strong portfolio of successfully ranked websites.
+Knowledge of Google Analytics, Google Search Console, and other SEO tools.
+Expertise in WordPress SEO and experience with plugins like Yoast SEO.
+Familiarity with Cloudflare, website speed optimization, and multi-server synchronization is a plus.
+Ability to manage multiple keywords and domains with a comprehensive strategy.
+Strong analytical and problem-solving skills.
+Additional Information:
+Our website has 30,000-50,000 visitors monthly, and we manage over 1.5 million pages. Experience in handling large-scale websites, database optimizations, and Google rankings is essential. We also use Cloudflare for load balancing across multiple servers.
+If you believe you're the right fit for this role, please provide examples of your past work, SEO strategy outlines, and how you can contribute to the growth of hzpt.com.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Comprehensive Social Media Management  -- 7</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>$2-8 USD / hour</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>18 proposals</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Lusaka,  Zambia</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>I am seeking a skilled social media professional to enhance my business's presence on Facebook and LinkedIn. The project's main components include:
+- Content Creation: I need engaging, high-quality content tailored to my target audience on both platforms. 
+- Account Management: This includes regular updates, interaction with followers, and maintaining a positive online presence. 
+- Advertising Campaigns: Design and implement effective advertising campaigns to increase visibility and engagement.
+Ideal candidates should have a proven track record in social media management, particularly on Facebook and LinkedIn, with strong content creation skills. Experience in running successful advertising campaigns is also a must. Understanding of audience engagement and brand building will be highly beneficial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Web Data Research &amp; Entry</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>$2-8 AUD / hour</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>38 proposals</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Sydney,  Australia</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>I need a dedicated freelance professional to assist me with data research and entry for a project involving database management. 
+The ideal candidate should have:
+- Proficiency in web data collection and entry
+- Experience in database management 
+- Strong attention to detail and accuracy 
+The task involves the following key aspects:
+- Research and collection of specific data from websites
+- Data entry into a database
+- Ensuring all data is accurately entered and categorized
+The data collected is crucial for managing the website, so precision and dedication to the task are paramount. 
+I prefer to receive the data in the form of a detailed report, as it will help me optimize and manage the website more efficiently.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Film Institute Social Media Marketing</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>3 proposals</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Mumbai,  India</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>I am looking for a digital marketing expert to promote my film institute across various social media platforms. The primary goal of this campaign will be to generate admission enquiries for our diploma programs, which are recognized at international film festivals.
+Key Responsibilities:
+- Develop and implement a social media marketing strategy targeting platforms like Facebook, Instagram, YouTube, Snapchat, and Telegram.
+- Create engaging and informative content that highlights the unique aspects of our film institute and its diploma programs.
+- Use data analytics to track the effectiveness of the campaign and make necessary adjustments to improve lead generation.
+Ideal Skills:
+- Proven experience in digital marketing, especially on social media platforms.
+- Exceptional content creation and copywriting skills.
+- Ability to use data analytics tools to measure campaign effectiveness.
+- Knowledge of the film industry and international film festivals would be a plus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Professional Social Media Image Creator</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>₹100-400 INR / hour</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>13 proposals</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>New Delhi,  India</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>I am seeking a talented content creator to develop high-quality images and graphics for my social media accounts.
+Your primary tasks will include:
+- Designing professional, engaging images/graphics for use on Instagram, Facebook, and LinkedIn
+- Ensuring all content aligns with a consistent, professional style
+Ideal candidates will have:
+- Proven experience in social media content creation, particularly with image/graphic design
+- A strong portfolio showcasing professional-style content
+- Exceptional understanding of the visual and stylistic requirements of Instagram, Facebook, and LinkedIn
+Please provide samples of relevant past work with your proposal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Looking for salespeople with Danish client portfolio for trips to Italy, work paid on a percentage basis.</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>€30-250 EUR</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1 proposal</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>It doesn't matter if it's in your customer portfolio or not, the important thing is that you can generate customers without campaigns and that you agree to be paid on a percentage basis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Process Diagram Creation</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>₹600-1500 INR</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>8 proposals</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Mohali,  India</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>I'm in need of a professional who can create a straightforward process diagram for me. The primary purpose of this diagram is to visualize a workflow. I have a dummy image to help convey my ideas, making the task more straightforward. 
+Ideal Skills and Experience:
+- Proficiency in CAD Design
+- Prior experience in creating process diagrams
+- Ability to understand and visualize workflows
+Please share if you have any previous experience with similar projects. I’ve also attached a dummy image for your reference.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>City-Specific Professional Services Listings</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>₹12500-37500 INR</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>16 proposals</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Delhi,  India</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Pls check site: [login to view URL]
+Point 1) Site has woocommerce e.g. on URL [login to view URL]
+if i apply a filter, new URL created is with a ?  i.e. param
+[login to view URL]
+Requirement: Static URLs should be created on applying filter 
+e.g. [login to view URL]
+Point 2) See current page :  [login to view URL]
+These are article pages with Level 2 menu where all Paint related pages can be linked by admin.
+Requirement
+2a) Ability for admin to add listings with attributes Name, Address, Lat, long, Google maps URL, Phone, Rating, Review count, City, Subcity, Category, Sub Category, Type ( Dealer, Contractor), Active/ inactive
+2b) Listing pages creation: Create a page "Paint shops in Noida" e.g. [login to view URL] automatically from listing data and map this page to a Category ( e.g. Paint) &amp; City ( e.g. Noida). 
+2c) When a visitor comes, detect his IP and hence city and when he lands on any Category page e.g.  [login to view URL]        show him above page [login to view URL]   in  Level 2 menu tab
+So, for a user from Noida when he goes to any page of "Paint" category he will see article pages ( which is already happening currently) and also see page  "Paint shops in Noida"
+Point 3) Requirement
+ 3a) To view a number on the listing page, visitors will have to login using phone number &amp; OTP.  
+ 3b) Limit on number of phone which can be viewed - 4 per day per mobile number, 4 per day per IP, 15 per month per mobile number,  15 per month per IP
+ 3c) When visitor views phone number of listing, Save visitor phone number, Name, City of listing, Category of lising &amp; date in a table</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Website Development -- 3</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>$25-30 USD / hour</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>104 proposals</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Le Bardo,  Tunisia</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>looking for a skilled web developer to create a website like this one: [login to view URL]
+Skills Requirements:
+- Proficient in WordPress and WooCommerce
+- Strong understanding of Classic and Elegant design principles
+- Experience in developing e-commerce sites with product filtering, and wish list features.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Social Media Multilingual Translator Needed</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>$250-750 USD</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>8 proposals</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Poltava,  Ukraine</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>I'm looking for a quality translator who can translate my Instagram texts into various languages. The main goal of these translations is to promote my products or services. 
+Skills and experience required:
+- Proficient in Spanish, French, English, Arabic, Italian, Polish
+- Experience in marketing translations
+- Understanding of social media and its language
+- Able to deliver high-quality translations consistently
+- Long-term commitment is needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>YouTube Gaming Video Editor</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>$30-250 USD</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>42 proposals</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Maricopa,  United States</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>I'm in need of a skilled video editor with experience in gaming content. The video will be uploaded to my YouTube channel, so familiarity with YouTube's style and audience is a plus.
+Key Responsibilities:
+- Edit raw gameplay footage into engaging content
+- Create visually appealing montages with sound effects and music
+- Ensure the final product is optimized for YouTube
+Ideal Skills:
+- Proficiency in video editing software
+- Experience with gaming content
+- Creative mindset with a good understanding of pacing, music, and visuals
+Please provide examples of previous gaming videos you have edited.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>YouTube Video Editing Expert Needed</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>5 proposals</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Indore,  India</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I'm seeking a talented video editor to enhance my YouTube content. Your primary responsibilities will include:
+- Adding effects and transitions to create engaging and professional-quality videos.
+Ideal skills and experience include:
+- Proficiency in video editing software (like Adobe Premiere Pro, Final Cut Pro, etc.)
+- Prior experience editing YouTube content.
+- Understanding of what makes a video entertaining and engaging for viewers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Wikipedia Page Creation for Ahmad Haffar -- 3</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>$250-750 USD</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>29 proposals</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Dubai,  United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I'm seeking a skilled professional to create a comprehensive Wikipedia page for Ahmad Haffar. The page should thoroughly cover Haffar's professional career, personal life, and contributions to the community. 
+Key Requirements:
+- Full research: The freelancer will need to find all sources, both primary and secondary, to support the content. This includes news articles, books, interviews, and personal documents.
+- Writing: The freelancer should be able to write in a neutral, encyclopedic tone that adheres to Wikipedia's guidelines.
+- Publishing: The final task will be to publish the page on Wikipedia.
+Ideal Skills and Experience:
+- Proven experience in Wikipedia page creation and understanding of its guidelines.
+- Exceptional research and writing skills.
+- Ability to write in a neutral, encyclopedic tone.
+- Prior experience with both primary and secondary source research.
+- Familiarity with the Wikipedia publishing process. 
+I am looking for a freelancer who is not only capable of meeting these requirements but who can also present Haffar's life and achievements in a captivating manner.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Welcome back</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Business Website Designer</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>₹100-400 INR / hour</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>25 proposals</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Hisar,  India</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I'm looking for a talented web designer to create a professional and engaging business site for me. The primary goal of this website will be to showcase my products and services.
+Key Features:
+- A contact form to enable potential customers to reach out
+Ideal Skills:
+- Proven experience in designing business websites
+- E-commerce knowledge would be a plus
+- Excellent understanding of user-friendly design principles
+- Proficient in creating responsive designs
+- Knowledge of SEO best practices
+Please include examples of your previous work with your bid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Algolia Search Integration Enhancement</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>€30-250 EUR</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>11 proposals</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>MILTON KEYNES,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I'm looking for an expert to help refine and finish the Algolia Search integration with our platform. The platform is connected, but the search result accuracy and training models need improvements. 
+Key Responsibilities:
+- Improve the accuracy of search results
+- Train models using user data
+- Utilize user-generated content for model training
+Ideal Skills:
+- Proficiency in Algolia Search
+- Experience in search optimization
+- Skills in data analysis and model training
+Please note, the goal is to enhance the search experience on our platform.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>DGII Facturacion Electronica odoo Republica Dominicana</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>€750-1500 EUR</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>34 proposals</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Aviles,  Spain</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Necesito hacer un módulo para Odoo 14 o superior para integrar con la Facturación Electrónica de República Dominicana.
+Esta es la documentación:
+[login to view URL]</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>SAAS Product Website UI Design</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>$8-15 USD / hour</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>83 proposals</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Sharjah,  United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>I'm looking for a talented UI designer to create a user interface for my e-commerce website. The design should be intuitive, attractive, and conducive to driving sales.
+Key Requirements:
+- Design for the Homepage and Product pages
+- Expertise in Website UI design
+- Prior experience in designing SAAS Product site UIs
+- Understanding of user-centric design principles
+- Proficiency in design tools like Sketch, Figma, or Adobe XD
+Your design should enhance user experience, promote easy navigation and ultimately lead to increased conversions. Please provide a portfolio of your previous work in SAAS UI design.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>YouTube Video Editing Needed</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>₹600-1000 INR</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>6 proposals</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Delhi,  India</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>I am looking for a skilled video editor to help edit my YouTube videos. The editing style should be simple and clean, without too many distractions or unnecessary cuts.
+Key Responsibilities:
+- Edit video footage into a coherent and engaging final product
+- Incorporate background music at appropriate parts of the video
+- Use transitions to smoothly segue between different segments of the video
+Ideal Skills:
+- Proficiency in video editing software
+- Previous experience editing YouTube content
+- Ability to adhere to a specific editing style
+- Strong understanding of pacing and timing in video editing
+- Creative approach to utilizing music and transitions 
+I am open to seeing examples of previous work and discussing how you can help enhance the quality of my channel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Admin Support</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>£2-5 GBP / hour</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>42 proposals</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Barnet,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>I'm in need of an efficient, dedicated professional to assist with various administrative tasks, primarily focusing on customer support via email. 
+Ideal Candidates Should Have:
+- Strong email communication skills, with an ability to handle, respond and manage customer queries professionally and promptly.
+- Experience in data entry, email management, and scheduling appointments.
+- Prior experience in customer support, specifically email support.
+- A proactive approach towards office management tasks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Food Vlog &amp; Hotel Navigator App</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>8 proposals</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Chennai,  India</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>I'm looking for a skilled UI/UX designer to help create a mobile application. The app should allow users to view food vlog videos, search for hotels and navigate through a map.
+Key features include:
+- Comprehensive hotel details including timing, address, phone, rating, signature dishes, and prices.
+- Advanced navigation features such as turn-by-turn directions and route optimization.
+- User-friendly interface that seamlessly integrates video viewing, hotel searching, and map navigation.
+Freelancers with experience in designing for mobile applications, particularly in the travel and food sectors, will be preferred. A keen understanding of UI/UX principles and a knack for creating engaging and intuitive designs is essential. Please include examples of relevant past work in your proposal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Custom-Built E-commerce Website Development</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>$1500-3000 CAD</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>151 proposals</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Ottawa,  Canada</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>I'm seeking a skilled web developer to create a comprehensive, custom-built E-commerce site for me.
+Essential Features:
+- Shopping Cart: Users should be able to shop and add items to their cart seamlessly.
+- SEO-Friendly: The site needs to be optimized for search engines to enhance visibility.
+- User Accounts: Implementation of account creation and management is crucial.
+- Inventory Management: The website should have a robust system for managing inventory.
+- Security: The site must have SSL Certification, a secure payment gateway, and data encryption to ensure safety and security.
+- CMS: I need an easy-to-use CMS that allows me to add/update products effortlessly.
+Control:
+I want full control over all updates and changes to the website, not just the content.
+Ideal Skills:
+- Expertise in custom website development.
+- Proficient in building E-commerce platforms.
+- Comprehensive knowledge of SEO strategies.
+- Experience with implementing robust security features.
+- Skilled in developing user-friendly CMS.
+I'm looking for a professional who can deliver a high-quality, secure, and easy-to-manage website. Please include your portfolio of similar projects in your proposal.
+Budget: I am open to discussing rates based on the scope of the work and developer expertise.
+Additional Information:
+I am happy to collaborate on ideas and provide detailed feedback during the development process.
+Future work is possible, as I may need ongoing support for updates and maintenance.
+for the colors of the website i am looking for something warm/ vintage but elegant. I have attached a photo for color reference.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Photo Editing</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>$10-30 USD</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>63 proposals</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>I have about 57 images where I need a soft blue sky added and the people in the back less faded and an overall cleaner look</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>HVAC Systems Maintenance Expert Needed</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>$250-750 USD</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>16 proposals</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Riyadh,  Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>I am seeking a skilled mechanical technician with expertise in HVAC systems. The primary focus will be on routine maintenance, with a specific emphasis on the inverter and condenser components. Ideal candidates should have a strong background in HVAC systems, with prior experience in both servicing and maintaining these systems. 
+Key Responsibilities:
+- Conduct regular maintenance on the HVAC system
+- Inspect and service the inverter and condenser
+- Identify and fix any potential issues before they become serious problems 
+Skills and Experience Required:
+- Proven experience with HVAC systems
+- Strong mechanical skills
+- Previous work as a mechanical technician highly desirable
+- Ability to work independently and efficiently</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Django Developer for UI Enhancement</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>$1500-3000 USD</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>112 proposals</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Atlanta,  United States</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>I need a seasoned Python developer with extensive experience in the Django framework. The project involves enhancing an existing web application, specifically focusing on the user interface.
+Key Requirements:
+- Improve User Experience Flow: The primary goal is to make the web application more intuitive and user-friendly. You will need to analyze the current user interface and implement changes that enhance the overall user experience.
+Ideal Skills:
+- Python
+- Django
+- UI/UX Design
+- Web Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Cyprus Company Registration &amp; Bank Account Help</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>$250-750 USD</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>14 proposals</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Jerusalem,  Israel</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>I'm looking for assistance in opening a bank account in Cyprus and setting up a company there. 
+Skills and Experience Ideal for this Job:
+- Knowledge and experience in company registration in Cyprus.
+- Familiarity with Cyprus bank account opening procedures.
+- Legal expertise for handling formalities (if necessary).
+- Understanding of different types of companies in Cyprus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Adventure-Filled Children's Book Writer</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>£250-750 GBP</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>40 proposals</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>London,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>I'm seeking a skilled children's book writer to craft a playful and humorous adventure story for ages 2 to 5. 
+Key Requirements:
+- Experience in writing children's literature, particularly for the 2-5 age group.
+- Ability to weave a captivating adventure narrative.
+- Proficiency in creating playful and humorous text.
+- Understanding of the language and themes suitable for young children.
+Ideal Skills:
+- Creativity and originality in story-telling.
+- Excellent command of simple, clear, and engaging language.
+- Understanding of rhythm, rhyme, and repetition in children's writing.
+- Experience with children's book publishing process is a plus. 
+Your work will play a significant role in sparking adventure and laughter in the hearts of our little readers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Website Development</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>35 proposals</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>KARELI,  India</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>I'm looking for an experienced web developer. The site should be user-friendly, smooth and capable of hosting a variety of content. Key responsibilities include:
+- Developing a responsive, SEO-optimized WordPress site
+- Implementing a clean, modern design
+- Ensuring robustness for potential high traffic
+- Providing training on basic site management
+Ideal skills for this project include a strong background in web development, specifically with WordPress, and experience in creating similar types of sites. A good understanding of SEO and responsive design is crucial. Please include examples of your previous WordPress projects in your bid.</t>
         </is>
       </c>
     </row>

--- a/Multi_Freelancer/freelancer_it_jobs.xlsx
+++ b/Multi_Freelancer/freelancer_it_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,30 +468,235 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Looks like the page you are looking for doesn't exist.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Perhaps you were trying to do this?</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Indonesian Language Translations - Iban 2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$15-25 USD / hour</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3 proposals</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Plano,  United States</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>I am in need of translation services from Indonesian into Iban.
+Ideal Skills:
+- Fluent in both Indonesian and Iban
+- Exceptional translation skills
+- Experience with formal, academic or professional content
+- Familiarity with potential cultural nuances and ability to convey these in the translation</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Business Agreement Drafting</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$10-30 AUD</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20 proposals</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Austins ferry,  Australia</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>I'm in need of a comprehensive business agreement. The contract should clearly outline:
+- Payment terms: The specifics about how and when payments will be made.
+- Responsibilities of each party: A detailed breakdown of the roles and obligations of both parties involved.
+Additionally, the contract must include a confidentiality clause to protect sensitive information exchanged during the course of our business relationship. The ideal freelancer for this project should have experience in contract law and business agreements, with a keen understanding of confidentiality stipulations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sofa and Recliner Parts CAD Drawings</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>₹12500-37500 INR</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8 proposals</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bengaluru,  India</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>I'm in need of detailed CAD drawings for manufacturing the parts of a sofa and a recliner. The drawings need to be precise, as they're intended for manufacturing.
+Ideal Skills:
+- Proficiency in CAD software
+- Experience in furniture design and part drawing
+- Understanding of manufacturing processes and requirements
+The purpose of this project is strictly for manufacturing, so attention to detail and accuracy is paramount. Please, only apply if you have relevant experience and can provide high-quality, precise drawings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>.NET Multi-platform App UI tracker app development(MAUI)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>₹350-650 INR / hour</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>7 proposals</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Vienna,  Austria</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>I am looking for a talented app developer with extensive experience in .NET Multi-platform App UI, to create a tracker application compatible with Windows and MacOS. 
 Key requirements include:
@@ -507,33 +712,33 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Rive Animations for Website</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>€30-250 EUR</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>32 proposals</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Courbevoie,  France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>I'm looking for an animation designer to create 23 animations for our website. But we don't have a big budget (startup pre-launch)
 Some are very complicated, others very simple:
@@ -554,33 +759,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Urgent: Modern Minimalist Portfolio Website</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>$15-25 USD / hour</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>118 proposals</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>George Town,  Malaysia</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>I'm in a bit of a financial crunch and urgently need a modern, minimalist portfolio website to showcase my work. The sooner I can get this up and running, the better. 
 Key requirements:
@@ -594,33 +799,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Daily Excel Update from CSV Files</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>₹1500-12500 INR</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>5 proposals</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Lauriya,  India</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>I need help with my daily data management task. Each day, I receive a new CSV file containing updates and new records that need to be added to my existing Excel file.
 Key requirements:
@@ -635,33 +840,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Wildlife Tour Ticketing Automation</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>₹12500-37500 INR</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>12 proposals</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Jaipur,  India</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>I am a wildlife tour organizer in India and I need help in automating ticket bookings on my website. The primary focus will be to streamline the ticket purchase process. 
 Key Requirements:
@@ -675,33 +880,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>App ios androidncar parts sales</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>€30-250 EUR</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>72 proposals</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Valenca,  Portugal</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Good morning
 I want to create an app to sell car parts.Ios+[login to view URL] already have the site built.I want an app on google play and the app store.I ask you to send me the link with the app template along with the proposals.I will also only consider proposals with real and objective prices.I want the app published in the respective stores
@@ -711,33 +916,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Power BI Expert Needed for Asset Analysis</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>$30-250 USD</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>21 proposals</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Dubai,  United Arab Emirates</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>I'm seeking a Power BI expert who can assist me in queries and table creation. I'm currently pulling IT asset data from various APIs, specifically related to systems and laptops.
 Key Responsibilities:
@@ -752,65 +957,65 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>No Title Available</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Not Disclosed</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>No Description Available</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Modern Aesthetic Revamp for ShrewdLearn</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>₹600-1500 INR</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>5 proposals</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Bengaluru,  India</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>I'm looking for a talented web designer to give my website, [login to view URL], a modern and trendy facelift. This site was originally created by AI and is currently hosted on Hostinger. The goal of this redesign is primarily to improve the aesthetics of the site, making it more visually appealing and in line with contemporary design trends.
 Key Requirements:
@@ -828,33 +1033,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Indonesian Language Translations - Ambonese Malay 2</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>$15-25 USD / hour</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>3 proposals</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Plano,  United States</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>I am in need of translation services from Indonesian into Ambonese Malay
 Ideal Skills:
@@ -865,33 +1070,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Social Networking App Development</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>£18-36 GBP / hour</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>3 proposals</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Maidenhead,  United Kingdom</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>I'm embarking on a new venture and need a seasoned app developer to help bring my idea to life. This will be a social networking app with the following features:
 - User profiles and connections: Users should be able to create profiles, connect with friends, and build their own network.
@@ -901,33 +1106,33 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>PDF to Editable Canva Doc Conversion</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>£10-20 GBP</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>48 proposals</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Chesterfield,  United Kingdom</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>I need a professional to convert my PDF into an editable Canva document. The project includes:
 - Making the text and images from the PDF editable in Canva.
@@ -936,65 +1141,65 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>No Title Available</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Not Disclosed</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>No Description Available</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Financial Data Analysis in Excel</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>$10-30 AUD</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>31 proposals</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Perth,  Australia</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>I'm looking for a skilled Excel professional who can assist me in analyzing my financial data. The main goal of this project is to generate comprehensive summary reports that can provide insights about my financial situation. 
 Key Tasks:
@@ -1008,65 +1213,65 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>No Title Available</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Not Disclosed</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>No Description Available</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Real Estate Salespersons Needed in India</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>₹250000-500000 INR</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Open for bidding</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Delhi,  India</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>We are seeking experienced freelancers to act as real estate salespersons for our fresh commercial and residential projects in Noida, Delhi, and Ghaziabad. 
 Key Responsibilities:
@@ -1083,33 +1288,33 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Event Footage Video Editing</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>₹100-400 INR / hour</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>4 proposals</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Nashik,  India</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>I'm in need of a professional video editor to assist with editing my event footage. The primary focus will be on color correction to enhance the visual quality of the video. 
 Ideal skills and experience for the job:
@@ -1120,98 +1325,98 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Facebook ads</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>₹12500-37500 INR</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>17 proposals</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Theethampatti,  India</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>I'm embarking on an exciting journey with IDP to develop a new product. The project is open-ended and I am looking for freelancers who are skilled in product development and can contribute innovative ideas and solutions.</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>I need a kotlin android developer who knows firebase backend</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>₹600-601 INR</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>4 proposals</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Kota,  India</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>You don't have to write the code. I will give you the code and you have to just place it and create the APK
 You will also need to setup firebase backend for the app.</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Indonesian Language Translations LampungNyo 2</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>$15-25 USD / hour</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Open for bidding</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Plano,  United States</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>I am in need of translation services from Indonesian into LampungNyo .
 Ideal Skills:
@@ -1222,65 +1427,65 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>No Title Available</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Not Disclosed</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>No Description Available</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Flexible WooCommerce Subscription Implementation</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>₹1500-12500 INR</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>33 proposals</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Bengaluru,  India</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>I would like to implement a subscription management and auto-renewal feature that operates as follows:
 We have integrated custom start and end date picker on cart page so subscription logic should be implemented using those fields
@@ -1294,65 +1499,65 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>No Title Available</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Not Disclosed</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>No Location Available</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>No Description Available</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Business Development Associate for E-commerce</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>No Employer Name Available</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>₹1500-12500 INR</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>2 proposals</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Ahmedabad,  India</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>I'm looking for an experienced Business Development Associate to drive lead conversion in the E-commerce sector. You will be primarily working with cold leads, so your ability to reach out, establish rapport, and ultimately close deals will be crucial. 
 Key Responsibilities:
@@ -1369,6 +1574,804 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Looks like the page you are looking for doesn't exist.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Perhaps you were trying to do this?</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Email Marketing Lead Generation Expert Needed</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$2-8 USD / hour</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6 proposals</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>I'm in need of a marketing professional with a strong focus on email marketing for lead generation. 
+Key Requirements:
+- Experience in lead generation and market research
+- Proficiency in email marketing strategies aimed at increasing sales
+- Ability to craft compelling sales emails featuring product information and features
+Your role will primarily focus on generating leads through email, with the ultimate goal of boosting sales. The ideal candidate should be able to understand and convey product information effectively, enticing potential customers to engage with our offerings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Indonesian Language Translations - Balinese 2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$15-25 USD / hour</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2 proposals</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Plano,  United States</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>I am in need of translation services from Indonesian into Balinese
+Ideal Skills:
+- Fluent in both Indonesian and Balinese 
+- Exceptional translation skills
+- Experience with formal, academic or professional content
+- Familiarity with potential cultural nuances and ability to convey these in the translation</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Troubleshoot Ubuntu 22.04 Postal SMTP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$10-30 USD</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16 proposals</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Dallas,  United States</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>I am seeking an experienced systems administrator to help troubleshoot my Ubuntu 22.04 Postal SMTP and Acelle Mail configuration. Both my emails are failing to send and I am unable to save the TLS settings in Postal. 
+Key issues:
+- Emails failing to send
+- TLS settings not saving
+When I attempt to save the TLS settings in Postal, I receive an error stating that it's unavailable. 
+I first noticed the problem after making changes to the configuration. I would appreciate prompt assistance in resolving these issues. Ideal skills for this job include expertise in Ubuntu, Postal SMTP, Acelle Mail, and TLS configuration.
+Im also using an outside smtp service and i can successfully send a test email but can send emails from a campaign.
+Must handle remotely</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Indonesian Language Translations - Makasar 2</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$15-25 USD / hour</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3 proposals</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Plano,  United States</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>I am in need of translation services from Indonesian into Makasar.
+Ideal Skills:
+- Fluent in both Indonesian and Makasar
+- Exceptional translation skills
+- Experience with formal, academic or professional content
+- Familiarity with potential cultural nuances and ability to convey these in the translation</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Airbnb &amp; Booking Listings Data Scraping</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>€30-250 EUR</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Open for bidding</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Genova,  Italy</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>I'm looking for a skilled web scraper to collect data from Airbnb and [login to view URL] listings. The data will include daily prices, availability, minimum stay and the number of guests allowed, with max 50+50+50 listings (3 different locations)  with a total of max 150 listings, for the next six months.
+The extracted data should be compiled into a Google Sheet (each listing should have its own line in the sheet) and this should automatically update when the sheet is opened.
+Use reliable web scraping frameworks (e.g., Python with BeautifulSoup, Scrapy, or Selenium) capable of handling Airbnb’s dynamic JavaScript content.
+Error Handling &amp; Compliance:
+Must be scalable for future URLs.
+Key Requirements:
+- Proficient in web scraping techniques
+- Experience with data collection from Airbnb and Booking
+- Ability to format data into a Google Sheet that auto-updates when opened
+- Capable of ensuring the sheet is structured clearly and without errors
+The ideal candidate should be able to start immediately and commit to this project for the full duration. 
+Please provide an estimated timeline, technology stack details, and any necessary requirements.
+Please include any relevant examples of your previous work in your proposal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>I need Leads &amp; Appointment Setter</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$15-25 AUD / hour</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3 proposals</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Dhaka,  Bangladesh</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I am in need of a professional lead generation and appointment setting service. The leads should be for both residential and commercial prospects in the home security industry. 
+Ideal candidates for this project should have experience in lead generation and appointment setting, preferably in the home security sector. Strong communication skills and the ability to deliver quality leads are essential.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>VMware Cloud Director VPN Setup</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$30-250 USD</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5 proposals</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Yerevan,  Armenia</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I'm looking for an experienced professional to set up a VPN using VMware Cloud Director. The primary objective is to connect our cloud resources with third party on-premises infrastructure.
+Key Responsibilities:
+- Configure a secure and efficient VPN connection to link our cloud resources with our on-premises infrastructure.
+- Implement basic user authentication for access control.
+- Ensure the VPN setup is compatible for connection through desktops and laptops.
+Ideal Skills:
+- In-depth knowledge and experience with VMware Cloud Director.
+- Strong understanding of VPN configurations and security protocols.
+- Excellent skills in implementing user authentication systems.
+Please note, the VPN is exclusively intended for use with desktops and laptops. Your expertise in this area will be pivotal to the success of this project.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NGO Funding Data Extraction from Annual Reports</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>€250-750 EUR</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2 proposals</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Barcelona,  Spain</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I need a freelancer to help me with an Excel project concerning approximately 60 NGOs. 
+Tasks:
+- Completing an Excel template with data from the annual reports of around 60 NGOs
+- Locating annual reports of these NGOs (2021-2023)
+- Extracting exact annual funding amounts from these reports
+- Including the source of funding alongside the annual amounts
+- Organizing the data by year in the Excel template
+Ideal Skills:
+- Proficiency in Excel
+- Strong attention to detail
+- Good research skills
+- Ability to understand and extract relevant data from annual reports
+Please only apply if you are confident in your ability to find these reports and accurately extract the necessary data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Heartfelt Birthday Video Editing</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>₹1500-12500 INR</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12 proposals</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Delhi,  India</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I'm looking for an amateur video editor who can help me create a 10-minute birthday video for a family member. I will provide the raw footage. The video should have an emotional and heartfelt style, reflecting the significance of the occasion. 
+Key Requirements:
+- Editing raw footage into a coherent, emotional narrative
+- Incorporating specific songs I will provide at the right moments
+- Using smooth and slow fades as transitions between clips
+Skills and Experience:
+- Previous experience in video editing, particularly for emotional content
+- Familiarity with syncing video to music
+- Proficient in using video editing software
+A keen eye for storytelling and emotional pacing will be essential for this project.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2D Animated Fintech Product Video</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$250-750 AUD</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>60 proposals</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Ocean Grove,  Australia</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I'm looking for a skilled animator to create a 2D animated video for a fintech landing page. The video should explain the product features in a clear and engaging way, aimed at potential customers. 
+Key tasks include:
+- Creating a 2D animated video that outlines the product features 
+- Tailoring the content to appeal to potential customers 
+Ideal skills and experience for the job:
+- Proficiency in 2D animation 
+- Experience in creating product explainer videos 
+- Understanding of fintech industry would be a plus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ESP32 Fan Dimmer: Manual &amp; Cloud Control</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>₹600-1500 INR</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5 proposals</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Pune,  India</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>I'm looking for a microcontroller-based fan dimmer using ESP32. This system should allow both manual and cloud control, without humming. Manual control will be facilitated via physical knobs or buttons. Cloud control should incorporate remote access through a mobile application and integration with smart home systems. 
+Key Requirements:
+- Design and implement a fan dimmer using ESP32
+- Manual control through physical knobs or buttons
+- Cloud control with mobile app access and smart home integration
+- Ensure system operates without humming
+Ideal Skills and Experience:
+- Proficient in ESP32 programming
+- Experience with hardware design for manual control interfaces
+- Knowledge in mobile app development for remote control
+- Prior experience with smart home system integrations
+- Solid understanding of noise control in electronic designs</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Flutter App - UI Adjustments (3- 4 issues)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$12-30 SGD</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>32 proposals</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Ipoh,  Malaysia</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Minor adjustment only.
+Amend on the create form, show correct value on dashboard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Indonesian Language Translations - Betawi 2</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>$15-25 USD / hour</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5 proposals</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Plano,  United States</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I am in need of translation services from Indonesian into Betawi .
+Ideal Skills:
+- Fluent in both Indonesian and Betawi 
+- Exceptional translation skills
+- Experience with formal, academic or professional content
+- Familiarity with potential cultural nuances and ability to convey these in the translation</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Indonesian Language Translations - Buginese 2</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>$15-25 USD / hour</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Open for bidding</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Plano,  United States</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>I am in need of translation services from Indonesian into Buginese.
+Ideal Skills:
+- Fluent in both Indonesian and Buginese 
+- Exceptional translation skills
+- Experience with formal, academic or professional content
+- Familiarity with potential cultural nuances and ability to convey these in the translation</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>No Title Available</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Not Disclosed</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Looks like the page you are looking for doesn't exist.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>No Employer Name Available</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Perhaps you were trying to do this?</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>No Location Available</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No Description Available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
